--- a/Technology/Hardware/Applied Materials.xlsx
+++ b/Technology/Hardware/Applied Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E535DD9-D9BC-2D4D-8E27-717C64D78713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CE14B6-ABDF-8B41-B502-177AD4EB6542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,17 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2530,13 +2530,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>125.62</v>
+    <v>132.06</v>
     <v>71.12</v>
-    <v>1.6021000000000001</v>
-    <v>-0.93</v>
-    <v>-8.1300000000000001E-3</v>
-    <v>-0.13</v>
-    <v>-1.1459999999999999E-3</v>
+    <v>1.5967</v>
+    <v>-2.97</v>
+    <v>-2.2860000000000002E-2</v>
+    <v>0.44</v>
+    <v>3.4660000000000003E-3</v>
     <v>USD</v>
     <v>Applied Materials, Inc. provides manufacturing equipment, services and software to the semiconductor, display, and related industries. The Company operates through three segments: Semiconductor Systems, Applied Global Services, and Display and Adjacent Markets. Its Semiconductor Systems segment primarily consists of capital equipment used to fabricate semiconductor chips. Its Applied Global Services segment provides integrated solutions to optimize equipment and fab performance and productivity, including spares, upgrades, services, certain remanufactured old equipment and factory automation software for semiconductor, display and solar products. Its Display and Adjacent Markets segment includes products for manufacturing liquid crystal and organic light-emitting diode (OLED) displays, and other display technologies for televisions, monitors, laptops, personal computers, electronic tablets, smart phones, and other consumer-oriented devices and equipment upgrades.</v>
     <v>33000</v>
@@ -2544,25 +2544,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3050 Bowers Ave, SANTA CLARA, CA, 95054-3299 US</v>
-    <v>114.1</v>
+    <v>128.32499999999999</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.999720682812</v>
+    <v>45065.96324458281</v>
     <v>0</v>
-    <v>112.205</v>
-    <v>95887140000</v>
+    <v>125.25</v>
+    <v>107287780880</v>
     <v>APPLIED MATERIALS, INC.</v>
     <v>APPLIED MATERIALS, INC.</v>
-    <v>113.47</v>
-    <v>15.3294</v>
-    <v>114.39</v>
-    <v>113.46</v>
-    <v>113.33</v>
+    <v>128.30000000000001</v>
+    <v>17.135000000000002</v>
+    <v>129.91999999999999</v>
+    <v>126.95</v>
+    <v>127.39</v>
     <v>845118400</v>
     <v>AMAT</v>
     <v>APPLIED MATERIALS, INC. (XNAS:AMAT)</v>
-    <v>4516756</v>
-    <v>6398099</v>
+    <v>10256106</v>
+    <v>5630502</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2727,9 +2727,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3150,10 +3150,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO89" sqref="AO89"/>
+      <selection pane="bottomRight" activeCell="AM112" sqref="AM112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5368,15 +5368,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>3.7187178592204768</v>
+        <v>4.1608602241613344</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>14.695347126436781</v>
+        <v>16.442571782375477</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>20.790793581960106</v>
+        <v>23.262745203816131</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13501,10 +13501,10 @@
       <c r="AM83" s="1">
         <v>-1590000000</v>
       </c>
-      <c r="AT83" s="57" t="s">
+      <c r="AT83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="58"/>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13624,10 +13624,10 @@
       <c r="AM84" s="1">
         <v>390000000</v>
       </c>
-      <c r="AT84" s="59" t="s">
+      <c r="AT84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="60"/>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14807,10 +14807,10 @@
       <c r="AM93" s="1">
         <v>-787000000</v>
       </c>
-      <c r="AT93" s="59" t="s">
+      <c r="AT93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="60"/>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15055,12 +15055,12 @@
       <c r="AM95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT95" s="63" t="s">
+      <c r="AT95" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AU95" s="64" cm="1">
+      <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.6021000000000001</v>
+        <v>1.5967</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.10992040500000001</v>
+        <v>0.10968793500000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15432,10 +15432,10 @@
       <c r="AM98" s="1">
         <v>-873000000</v>
       </c>
-      <c r="AT98" s="59" t="s">
+      <c r="AT98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="60"/>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>5.3846231267047115E-2</v>
+        <v>4.8401353547426397E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15807,12 +15807,12 @@
       <c r="AM101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT101" s="63" t="s">
+      <c r="AT101" s="57" t="s">
         <v>142</v>
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>95887140000</v>
+        <v>107287780880</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15938,7 +15938,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.94615376873295287</v>
+        <v>0.95159864645257364</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>101344140000</v>
+        <v>112744780880</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16185,10 +16185,10 @@
       <c r="AM104" s="11">
         <v>2100000000</v>
       </c>
-      <c r="AT104" s="59" t="s">
+      <c r="AT104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="60"/>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10593339706726129</v>
+        <v>0.10611534123394982</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16552,7 +16552,7 @@
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>74997936498.030441</v>
+        <v>74829713855.409286</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>80919729448.099075</v>
+        <v>80751506805.477921</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16593,14 +16593,14 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>0.10593339706726129</v>
+        <v>0.10611534123394982</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="61" t="s">
+      <c r="AN109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="62"/>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="49" t="s">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>65189529755.990898</v>
+        <v>65041195296.598061</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16635,7 +16635,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>62313529755.990898</v>
+        <v>62165195296.598061</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16653,16 +16653,16 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>89.461433839313386</v>
+        <v>89.248475056894449</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN116" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AO116" s="65" cm="1">
+      <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>113.46</v>
+        <v>126.95</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>-0.21151565450984144</v>
+        <v>-0.29697932211977596</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Applied Materials.xlsx
+++ b/Technology/Hardware/Applied Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CE14B6-ABDF-8B41-B502-177AD4EB6542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB3DBC7-B1BF-8A42-AED6-F73026118241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2530,13 +2530,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>132.06</v>
+    <v>142.53</v>
     <v>71.12</v>
-    <v>1.5967</v>
-    <v>-2.97</v>
-    <v>-2.2860000000000002E-2</v>
-    <v>0.44</v>
-    <v>3.4660000000000003E-3</v>
+    <v>1.5792999999999999</v>
+    <v>2.25</v>
+    <v>1.6463000000000002E-2</v>
     <v>USD</v>
     <v>Applied Materials, Inc. provides manufacturing equipment, services and software to the semiconductor, display, and related industries. The Company operates through three segments: Semiconductor Systems, Applied Global Services, and Display and Adjacent Markets. Its Semiconductor Systems segment primarily consists of capital equipment used to fabricate semiconductor chips. Its Applied Global Services segment provides integrated solutions to optimize equipment and fab performance and productivity, including spares, upgrades, services, certain remanufactured old equipment and factory automation software for semiconductor, display and solar products. Its Display and Adjacent Markets segment includes products for manufacturing liquid crystal and organic light-emitting diode (OLED) displays, and other display technologies for televisions, monitors, laptops, personal computers, electronic tablets, smart phones, and other consumer-oriented devices and equipment upgrades.</v>
     <v>33000</v>
@@ -2544,25 +2542,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3050 Bowers Ave, SANTA CLARA, CA, 95054-3299 US</v>
-    <v>128.32499999999999</v>
+    <v>139.6</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45065.96324458281</v>
+    <v>45099.999541990626</v>
     <v>0</v>
-    <v>125.25</v>
-    <v>107287780880</v>
+    <v>135</v>
+    <v>116657708807</v>
     <v>APPLIED MATERIALS, INC.</v>
     <v>APPLIED MATERIALS, INC.</v>
-    <v>128.30000000000001</v>
-    <v>17.135000000000002</v>
-    <v>129.91999999999999</v>
-    <v>126.95</v>
-    <v>127.39</v>
-    <v>845118400</v>
+    <v>135</v>
+    <v>18.321999999999999</v>
+    <v>136.66999999999999</v>
+    <v>138.91999999999999</v>
+    <v>839747400</v>
     <v>AMAT</v>
     <v>APPLIED MATERIALS, INC. (XNAS:AMAT)</v>
-    <v>10256106</v>
-    <v>5630502</v>
+    <v>3390</v>
+    <v>6472283</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2594,8 +2591,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2616,7 +2611,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2633,7 +2627,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2644,16 +2638,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2719,19 +2710,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2776,9 +2761,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2786,9 +2768,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3150,10 +3129,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM112" sqref="AM112"/>
+      <selection pane="bottomRight" activeCell="AL118" sqref="AL118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5368,15 +5347,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>4.1608602241613344</v>
+        <v>4.5242469965871628</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>16.442571782375477</v>
+        <v>17.87857606237548</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>23.262745203816131</v>
+        <v>25.294386124674762</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15060,7 +15039,7 @@
       </c>
       <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.5967</v>
+        <v>1.5792999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15311,7 +15290,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.10968793500000001</v>
+        <v>0.10893886500000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15686,7 +15665,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>4.8401353547426397E-2</v>
+        <v>4.4687491403060102E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15812,7 +15791,7 @@
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>107287780880</v>
+        <v>116657708807</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15938,7 +15917,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.95159864645257364</v>
+        <v>0.95531250859693995</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16064,7 +16043,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>112744780880</v>
+        <v>122114708807</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16354,7 +16333,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10611534123394982</v>
+        <v>0.10567387235307223</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16552,7 +16531,7 @@
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>74829713855.409286</v>
+        <v>75239201947.012955</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16583,7 +16562,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>80751506805.477921</v>
+        <v>81160994897.081589</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16593,7 +16572,7 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>0.10611534123394982</v>
+        <v>0.10567387235307223</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16608,7 +16587,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>65041195296.598061</v>
+        <v>65402273898.001518</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16635,7 +16614,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>62165195296.598061</v>
+        <v>62526273898.001518</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16653,7 +16632,7 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>89.248475056894449</v>
+        <v>89.766863431565866</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16662,7 +16641,7 @@
       </c>
       <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>126.95</v>
+        <v>138.91999999999999</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16671,7 +16650,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>-0.29697932211977596</v>
+        <v>-0.35382332686750739</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Applied Materials.xlsx
+++ b/Technology/Hardware/Applied Materials.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB3DBC7-B1BF-8A42-AED6-F73026118241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BFFD8D-3D58-BC44-92A5-423F9392C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +548,45 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,20 +922,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,79 +936,90 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,9 +1070,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>AMAT</a:t>
+              <a:t>Applied Materials</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1124,10 +1108,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6410596026490061E-2"/>
-          <c:y val="0.11127548390536962"/>
-          <c:w val="0.85060927152317878"/>
-          <c:h val="0.7242318835427739"/>
+          <c:x val="9.6570480928689903E-2"/>
+          <c:y val="0.14345593311880719"/>
+          <c:w val="0.8437280265339967"/>
+          <c:h val="0.66485183329105602"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1306,7 +1290,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B852-734B-BB53-C09F99A1DC99}"/>
+              <c16:uniqueId val="{00000000-1047-7849-8C42-987AE9BDFFE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1315,11 +1299,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1359,130 +1343,130 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>21200000</c:v>
+                  <c:v>9300000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9900000</c:v>
+                  <c:v>1200000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9800000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78100000</c:v>
+                  <c:v>40000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96100000</c:v>
+                  <c:v>51500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70100000</c:v>
+                  <c:v>34100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64800000</c:v>
+                  <c:v>26200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87800000</c:v>
+                  <c:v>39500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189300000</c:v>
+                  <c:v>99700000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>396900000</c:v>
+                  <c:v>220700000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>781800000</c:v>
+                  <c:v>454100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1071400000</c:v>
+                  <c:v>599600000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1018300000</c:v>
+                  <c:v>498500000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>664300000</c:v>
+                  <c:v>230900000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1352000000</c:v>
+                  <c:v>746700000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3309814000</c:v>
+                  <c:v>2063552000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1490773000</c:v>
+                  <c:v>775228000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>728037000</c:v>
+                  <c:v>269004000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>172835000</c:v>
+                  <c:v>-149147000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2186235000</c:v>
+                  <c:v>1351303000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1882153000</c:v>
+                  <c:v>1209900000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2437384000</c:v>
+                  <c:v>1516663000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2707987000</c:v>
+                  <c:v>1710196000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1728769000</c:v>
+                  <c:v>960746000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-173296000</c:v>
+                  <c:v>-305327000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1712988000</c:v>
+                  <c:v>937866000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2683000000</c:v>
+                  <c:v>1926000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>833000000</c:v>
+                  <c:v>109000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>855000000</c:v>
+                  <c:v>256000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1918000000</c:v>
+                  <c:v>1072000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2072000000</c:v>
+                  <c:v>1377000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2557000000</c:v>
+                  <c:v>1721000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4336000000</c:v>
+                  <c:v>3434000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5385000000</c:v>
+                  <c:v>3313000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3869000000</c:v>
+                  <c:v>2706000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4782000000</c:v>
+                  <c:v>3619000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7401000000</c:v>
+                  <c:v>5888000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8271000000</c:v>
+                  <c:v>6525000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B852-734B-BB53-C09F99A1DC99}"/>
+              <c16:uniqueId val="{00000001-1047-7849-8C42-987AE9BDFFE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1491,11 +1475,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1535,7 +1519,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1658,7 +1642,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B852-734B-BB53-C09F99A1DC99}"/>
+              <c16:uniqueId val="{00000002-1047-7849-8C42-987AE9BDFFE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1672,11 +1656,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="67062080"/>
-        <c:axId val="66664368"/>
+        <c:axId val="764776607"/>
+        <c:axId val="1036812447"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67062080"/>
+        <c:axId val="764776607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66664368"/>
+        <c:crossAx val="1036812447"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66664368"/>
+        <c:axId val="1036812447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1773,7 +1757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67062080"/>
+        <c:crossAx val="764776607"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1791,10 +1775,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34954674870939145"/>
-          <c:y val="0.91309592790743144"/>
-          <c:w val="0.30355550920373364"/>
-          <c:h val="4.6272017916496329E-2"/>
+          <c:x val="0.34391611496324154"/>
+          <c:y val="0.89960419675635206"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="5.9653710543700708E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2374,22 +2358,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84A110A-BCA3-137F-BBFD-C6C159C6D831}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC591B7-EDF2-91EE-1315-7F7498D891B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,6 +2392,50 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2530,11 +2558,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>142.53</v>
+    <v>146.69</v>
     <v>71.12</v>
-    <v>1.5792999999999999</v>
-    <v>2.25</v>
-    <v>1.6463000000000002E-2</v>
+    <v>1.5855999999999999</v>
+    <v>-0.81</v>
+    <v>-5.77E-3</v>
+    <v>0.41</v>
+    <v>2.9380000000000001E-3</v>
     <v>USD</v>
     <v>Applied Materials, Inc. provides manufacturing equipment, services and software to the semiconductor, display, and related industries. The Company operates through three segments: Semiconductor Systems, Applied Global Services, and Display and Adjacent Markets. Its Semiconductor Systems segment primarily consists of capital equipment used to fabricate semiconductor chips. Its Applied Global Services segment provides integrated solutions to optimize equipment and fab performance and productivity, including spares, upgrades, services, certain remanufactured old equipment and factory automation software for semiconductor, display and solar products. Its Display and Adjacent Markets segment includes products for manufacturing liquid crystal and organic light-emitting diode (OLED) displays, and other display technologies for televisions, monitors, laptops, personal computers, electronic tablets, smart phones, and other consumer-oriented devices and equipment upgrades.</v>
     <v>33000</v>
@@ -2542,24 +2572,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3050 Bowers Ave, SANTA CLARA, CA, 95054-3299 US</v>
-    <v>139.6</v>
+    <v>142.12</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.999541990626</v>
+    <v>45114.998240185159</v>
     <v>0</v>
-    <v>135</v>
-    <v>116657708807</v>
+    <v>139.41</v>
+    <v>117203500000</v>
     <v>APPLIED MATERIALS, INC.</v>
     <v>APPLIED MATERIALS, INC.</v>
-    <v>135</v>
-    <v>18.321999999999999</v>
-    <v>136.66999999999999</v>
-    <v>138.91999999999999</v>
+    <v>139.62</v>
+    <v>18.407800000000002</v>
+    <v>140.38</v>
+    <v>139.57</v>
+    <v>139.97999999999999</v>
     <v>839747400</v>
     <v>AMAT</v>
     <v>APPLIED MATERIALS, INC. (XNAS:AMAT)</v>
-    <v>3390</v>
-    <v>6472283</v>
+    <v>3459428</v>
+    <v>5669467</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2591,6 +2622,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2611,6 +2644,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2627,7 +2661,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2638,13 +2672,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2710,13 +2747,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2761,6 +2804,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2768,6 +2814,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3129,10 +3178,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL118" sqref="AL118"/>
+      <selection pane="bottomRight" activeCell="AO95" sqref="AO95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3260,19 +3309,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3281,127 +3330,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3524,37 +3573,37 @@
       <c r="AM3" s="1">
         <v>25785000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>24688000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>23961000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>26733000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>31348000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>32602000000</v>
+      <c r="AN3" s="24">
+        <v>25384000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>24580000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>27500000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>30418000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>32372000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3566,164 +3615,164 @@
         <v>0.16811788345612855</v>
       </c>
       <c r="E4" s="15">
-        <f>(E3/D3)-1</f>
+        <f t="shared" ref="E4:AM4" si="0">(E3/D3)-1</f>
         <v>1.080275229357798</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
+        <f t="shared" si="0"/>
         <v>0.38313120176405735</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>0.13013152650458348</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>0.1260800564274378</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>0.17663639210773563</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>0.43731700825126429</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>0.53685185185185191</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>0.84474033016026029</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="0"/>
         <v>0.35366929030993832</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <f t="shared" si="0"/>
         <v>-1.7009264620729603E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <f t="shared" si="0"/>
         <v>-8.0013744692339905E-3</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="0"/>
         <v>0.20224163099685777</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <f t="shared" si="0"/>
         <v>0.96835051758556112</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <f t="shared" si="0"/>
         <v>-0.23223215394736241</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <f t="shared" si="0"/>
         <v>-0.31061677339509708</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <f t="shared" si="0"/>
         <v>-0.1155639952654044</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <f t="shared" si="0"/>
         <v>0.78971235061558431</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <f t="shared" si="0"/>
         <v>-0.12744689515108021</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <f t="shared" si="0"/>
         <v>0.31110498649636864</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <f t="shared" si="0"/>
         <v>6.1944052883523559E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="15">
         <f t="shared" si="0"/>
         <v>-0.16493474582469425</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="15">
         <f t="shared" si="0"/>
         <v>-0.38326251900546671</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="15">
         <f t="shared" si="0"/>
         <v>0.9045503566593871</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="15">
         <f t="shared" si="0"/>
         <v>0.10141028061822666</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="15">
         <f t="shared" si="0"/>
         <v>-0.17096130075116478</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="15">
         <f t="shared" si="0"/>
         <v>-0.13877738272737694</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="15">
         <f t="shared" si="0"/>
         <v>0.20815021973631631</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="15">
         <f t="shared" si="0"/>
         <v>6.4704585537918913E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="15">
         <f t="shared" si="0"/>
         <v>0.12071643027228496</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="15">
         <f t="shared" si="0"/>
         <v>0.34290993071593534</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="15">
         <f t="shared" si="0"/>
         <v>0.18683359702827262</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="15">
         <f t="shared" si="0"/>
         <v>-0.15330667130354136</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="15">
         <f t="shared" si="0"/>
         <v>0.17757393209200445</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="15">
         <f t="shared" si="0"/>
         <v>0.34071619579118706</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="15">
         <f t="shared" si="0"/>
         <v>0.11802454147335562</v>
       </c>
       <c r="AN4" s="16">
-        <f t="shared" si="0"/>
-        <v>-4.2544114795423749E-2</v>
+        <f t="shared" ref="F4:AR4" si="1">(AN3/AM3)-1</f>
+        <v>-1.5551677331782088E-2</v>
       </c>
       <c r="AO4" s="16">
-        <f t="shared" si="0"/>
-        <v>-2.9447504860661056E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.1673495115033146E-2</v>
       </c>
       <c r="AP4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.11568799298860655</v>
+        <f t="shared" si="1"/>
+        <v>0.1187957689178194</v>
       </c>
       <c r="AQ4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.17263307522537685</v>
+        <f t="shared" si="1"/>
+        <v>0.10610909090909093</v>
       </c>
       <c r="AR4" s="16">
-        <f t="shared" si="0"/>
-        <v>4.0002551996937585E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.4238279965809664E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3738,7 +3787,7 @@
         <v>0.35751776373101124</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.19431045951217232</v>
       </c>
     </row>
@@ -3980,16 +4029,16 @@
         <v>11993000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4123,7 +4172,7 @@
         <v>0.25309999999999999</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.17886368043436107</v>
       </c>
     </row>
@@ -4132,31 +4181,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1">
         <v>189100000</v>
@@ -4248,171 +4297,171 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15" t="e">
-        <f t="shared" ref="C9:AM9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AM9" si="2">C8/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="E9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="G9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11392938908302205</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10767823900192691</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11614553175062729</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13931227450114131</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15931414998639187</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14031404992694121</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.115837962647364</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16325187437493599</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2078633241096163</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20561942478163694</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12378200445946824</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13451527591588058</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12570352788814329</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11731791410165697</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13582106076336781</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18631595974714413</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1197571346869673</v>
       </c>
       <c r="AB9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10630407911001236</v>
       </c>
       <c r="AC9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14187406812707878</v>
       </c>
       <c r="AD9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17578905313623652</v>
       </c>
       <c r="AE9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15740740740740741</v>
       </c>
       <c r="AF9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15022259033026192</v>
       </c>
       <c r="AG9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14226327944572748</v>
       </c>
       <c r="AH9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12203343193231066</v>
       </c>
       <c r="AI9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11702312641279777</v>
       </c>
       <c r="AJ9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14060788608981381</v>
       </c>
       <c r="AK9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12986861992791535</v>
       </c>
       <c r="AL9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10774834149937129</v>
       </c>
       <c r="AM9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10746558076401008</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4420,76 +4469,76 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1">
         <v>406946000</v>
@@ -4498,10 +4547,10 @@
         <v>535820000</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1">
         <v>469000000</v>
@@ -4555,76 +4604,76 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1">
         <v>327572000</v>
@@ -4633,10 +4682,10 @@
         <v>406028000</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1">
         <v>433000000</v>
@@ -4788,172 +4837,172 @@
         <v>1438000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>0.36827033218785798</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AM13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AM13" si="3">C12/C3</f>
         <v>0.37776289350301406</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39736238532110091</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27590959206174198</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32124352331606215</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36360430259213544</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33808330723457564</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31354804365184991</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28870370370370368</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14580069887938304</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12613083379600901</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13021134916039376</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13906683356650223</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14689363386693718</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13541602354345456</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10045081704970468</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12282357888498387</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14004569453640944</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13978653609961916</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.3799462203155021E-2</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9745373989015451E-2</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8913561166155087E-2</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7838427193992397E-2</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11872745791734529</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14650490156089219</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8636595034678656E-2</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5670818674526958E-2</v>
       </c>
       <c r="AC13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1234086477807088</v>
       </c>
       <c r="AD13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12012251964309495</v>
       </c>
       <c r="AE13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8104056437389772E-2</v>
       </c>
       <c r="AF13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.1417330986644577E-2</v>
       </c>
       <c r="AG13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5658198614318703E-2</v>
       </c>
       <c r="AH13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1223085918690238E-2</v>
       </c>
       <c r="AI13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8076856198921924E-2</v>
       </c>
       <c r="AJ13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7223439211391012E-2</v>
       </c>
       <c r="AK13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3539123357749097E-2</v>
       </c>
       <c r="AL13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3288817586610589E-2</v>
       </c>
       <c r="AM13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5768857863098702E-2</v>
       </c>
       <c r="AS13" s="17">
@@ -5008,7 +5057,7 @@
         <v>-2000000</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1">
         <v>-100000</v>
@@ -5032,64 +5081,64 @@
         <v>85479000</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1">
         <v>26627000</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1">
         <v>572656000</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -5211,16 +5260,16 @@
         <v>4209000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5341,98 +5390,98 @@
       <c r="AM16" s="1">
         <v>18001000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-4.1153774213629021E-2</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="26">
         <f>AU101/AM3</f>
-        <v>4.5242469965871628</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>4.5454140003878223</v>
+      </c>
+      <c r="AU16" s="26">
         <f>AU101/AM28</f>
-        <v>17.87857606237548</v>
-      </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
-        <v>25.294386124674762</v>
+        <v>17.962222222222223</v>
+      </c>
+      <c r="AV16" s="27">
+        <f>AU101/AM107</f>
+        <v>25.412727666955767</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>21304000</v>
@@ -5477,7 +5526,7 @@
         <v>228000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5596,10 +5645,19 @@
         <v>444000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5717,14 +5775,41 @@
       <c r="AM19" s="10">
         <v>8271000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="32">
+        <v>7628000000</v>
+      </c>
+      <c r="AO19" s="32">
+        <v>7170000000</v>
+      </c>
+      <c r="AP19" s="32">
+        <v>8562000000</v>
+      </c>
+      <c r="AQ19" s="32">
+        <v>9960000000</v>
+      </c>
+      <c r="AR19" s="32">
+        <v>10924000000</v>
+      </c>
+      <c r="AS19" s="28">
         <f>AM40-AM56-AM61</f>
         <v>-2876000000</v>
       </c>
+      <c r="AT19" s="37">
+        <f>AU101/AN3</f>
+        <v>4.6172195083517176</v>
+      </c>
+      <c r="AU19" s="37">
+        <f>AU101/AN28</f>
+        <v>18.788634177621031</v>
+      </c>
+      <c r="AV19" s="38">
+        <f>AU101/AN105</f>
+        <v>24.386444769301189</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5740,143 +5825,163 @@
         <v>6.9693877551020407</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AK20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AK20" si="4">(F19/E19)-1</f>
         <v>0.2304737516005122</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.27055150884495316</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.5606276747503531E-2</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35493827160493829</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1560364464692481</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0966719492868462</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9697656840513984</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37042721923765676</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.9561321635243627E-2</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.34763822056368454</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0352250489236789</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4480872781065091</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.54959009781214285</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.51163792207130121</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.76260135130494744</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.649260855729453</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.13908934766848025</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29499780304789258</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11102189888831626</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.36160365614753687</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.1002424268366682</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10.884752100452404</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56626899896555027</v>
       </c>
       <c r="AC20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.68952664927320162</v>
       </c>
       <c r="AD20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6410564225690214E-2</v>
       </c>
       <c r="AE20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2432748538011698</v>
       </c>
       <c r="AF20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0291970802919721E-2</v>
       </c>
       <c r="AG20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23407335907335902</v>
       </c>
       <c r="AH20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69573719202190065</v>
       </c>
       <c r="AI20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24192804428044279</v>
       </c>
       <c r="AJ20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.28152274837511604</v>
       </c>
       <c r="AK20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23597828896355644</v>
       </c>
       <c r="AL20" s="15">
-        <f t="shared" ref="AL20" si="4">(AL19/AK19)-1</f>
+        <f t="shared" ref="AL20" si="5">(AL19/AK19)-1</f>
         <v>0.54767879548306153</v>
       </c>
       <c r="AM20" s="15">
-        <f t="shared" ref="AM20" si="5">(AM19/AL19)-1</f>
+        <f t="shared" ref="AM20:AR20" si="6">(AM19/AL19)-1</f>
         <v>0.11755168220510748</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="6"/>
+        <v>-7.7741506468383514E-2</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="6"/>
+        <v>-6.0041950707918179E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.19414225941422592</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.16327960756832516</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="6"/>
+        <v>9.6787148594377426E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5994,8 +6099,34 @@
       <c r="AM21" s="2">
         <v>0.32079999999999997</v>
       </c>
+      <c r="AN21" s="33">
+        <f>AN19/AN3</f>
+        <v>0.30050425464859754</v>
+      </c>
+      <c r="AO21" s="33">
+        <f t="shared" ref="AO21:AR21" si="7">AO19/AO3</f>
+        <v>0.29170056956875506</v>
+      </c>
+      <c r="AP21" s="33">
+        <f t="shared" si="7"/>
+        <v>0.31134545454545454</v>
+      </c>
+      <c r="AQ21" s="33">
+        <f t="shared" si="7"/>
+        <v>0.32743770136103623</v>
+      </c>
+      <c r="AR21" s="33">
+        <f t="shared" si="7"/>
+        <v>0.33745211911528483</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6113,8 +6244,16 @@
       <c r="AM22" s="10">
         <v>7788000000</v>
       </c>
+      <c r="AU22" s="39">
+        <f>(-1*AM98)/AU101</f>
+        <v>7.4485830201316515E-3</v>
+      </c>
+      <c r="AV22" s="40">
+        <f>AM107/AU101</f>
+        <v>3.9350360697419443E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6233,7 +6372,7 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6283,7 +6422,7 @@
         <v>88100000</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R24" s="1">
         <v>173656000</v>
@@ -6352,7 +6491,7 @@
         <v>-189000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6471,7 +6610,7 @@
         <v>7599000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6590,7 +6729,7 @@
         <v>0.29470000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6709,7 +6848,7 @@
         <v>1074000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6827,10 +6966,25 @@
       <c r="AM28" s="11">
         <v>6525000000</v>
       </c>
+      <c r="AN28" s="34">
+        <v>6238000000</v>
+      </c>
+      <c r="AO28" s="34">
+        <v>5889000000</v>
+      </c>
+      <c r="AP28" s="34">
+        <v>7089000000</v>
+      </c>
+      <c r="AQ28" s="34">
+        <v>7694000000</v>
+      </c>
+      <c r="AR28" s="34">
+        <v>7983000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6846,143 +7000,163 @@
         <v>132.33333333333334</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AK29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AK29" si="8">(F28/E28)-1</f>
         <v>0.28750000000000009</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.3378640776699029</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.23167155425219943</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.50763358778625944</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5240506329113925</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2136409227683047</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0575441776166743</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.32041400572561107</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.16861240827218149</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.53681043129388162</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.233867475097445</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7635623409669212</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.62432349657289954</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.65300014963339814</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.554441569642087</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-10.060209055495585</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.10464196408947513</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.25354409455326876</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12760448431853355</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.43822462454595845</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.3178019996960695</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.0716772509473449</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.053598275233349</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.94340602284527519</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3486238532110093</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1875</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28451492537313428</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.24981844589687729</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.9953515398024404</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.5235876528829313E-2</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.18321762752792037</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.33739837398373984</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" ref="AL29" si="7">(AL28/AK28)-1</f>
+        <f t="shared" ref="AL29" si="9">(AL28/AK28)-1</f>
         <v>0.62696877590494604</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" ref="AM29" si="8">(AM28/AL28)-1</f>
+        <f t="shared" ref="AM29:AR29" si="10">(AM28/AL28)-1</f>
         <v>0.10818614130434789</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="10"/>
+        <v>-4.3984674329501927E-2</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="10"/>
+        <v>-5.5947419044565572E-2</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="10"/>
+        <v>0.20376974019358118</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="10"/>
+        <v>8.5343489913951132E-2</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="10"/>
+        <v>3.7561736417988101E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7100,8 +7274,28 @@
       <c r="AM30" s="2">
         <v>0.25309999999999999</v>
       </c>
+      <c r="AN30" s="35">
+        <f>AN28/AN3</f>
+        <v>0.24574535140245823</v>
+      </c>
+      <c r="AO30" s="35">
+        <f t="shared" ref="AO30:AR30" si="11">AO28/AO3</f>
+        <v>0.23958502847843777</v>
+      </c>
+      <c r="AP30" s="35">
+        <f t="shared" si="11"/>
+        <v>0.25778181818181817</v>
+      </c>
+      <c r="AQ30" s="35">
+        <f t="shared" si="11"/>
+        <v>0.25294233677427841</v>
+      </c>
+      <c r="AR30" s="35">
+        <f t="shared" si="11"/>
+        <v>0.24660200172989002</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7219,8 +7413,23 @@
       <c r="AM31" s="12">
         <v>7.49</v>
       </c>
+      <c r="AN31" s="36">
+        <v>7.43</v>
+      </c>
+      <c r="AO31" s="36">
+        <v>7.01</v>
+      </c>
+      <c r="AP31" s="36">
+        <v>8.44</v>
+      </c>
+      <c r="AQ31" s="36">
+        <v>9.16</v>
+      </c>
+      <c r="AR31" s="36">
+        <v>9.51</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7579,7 +7788,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7587,147 +7796,147 @@
         <v>0.35556129032258066</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AK35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AK35" si="12">(D34-C34)/C34</f>
         <v>0.17826682911970759</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.8235636269630965E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.03</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-5.4091539805825241E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.5659824362363584E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.6881134541984739E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.10427215147939033</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.1543430290872613E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0859317109890498</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.48235390306064913</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0578627176523772</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.49911337663231331</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.6326629820241577E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.4691561269862117E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.3780757918407206E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.0710279006147551E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2.4683275376610952E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.7412393789426936E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.7262037179557922E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-5.5759511503216001E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-8.8219583507979191E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.6786914103834473E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.0131530796132722E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1786892267669649E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.3941239794662531E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.9849624060150378E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-4.541895066562255E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.8441345365053324E-3</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-4.0617384240454911E-3</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-8.9722675367047311E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2.8673835125448029E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-5.350553505535055E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-7.8947368421052627E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2.328042328042328E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" ref="AL35" si="10">(AL34-AK34)/AK34</f>
+        <f t="shared" ref="AL35" si="13">(AL34-AK34)/AK34</f>
         <v>-4.3336944745395447E-3</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" ref="AM35" si="11">(AM34-AL34)/AL34</f>
+        <f t="shared" ref="AM35" si="14">(AM34-AL34)/AL34</f>
         <v>-4.5701849836779107E-2</v>
       </c>
     </row>
@@ -7736,118 +7945,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7855,118 +8064,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8093,34 +8302,34 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1">
         <v>483500000</v>
@@ -8926,40 +9135,40 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1">
         <v>13000000</v>
@@ -8968,7 +9177,7 @@
         <v>12000000</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1">
         <v>100000000</v>
@@ -8977,16 +9186,16 @@
         <v>111000000</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>572558000</v>
@@ -9045,40 +9254,40 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1">
         <v>186000000</v>
@@ -9087,7 +9296,7 @@
         <v>91000000</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1">
         <v>184000000</v>
@@ -9164,40 +9373,40 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1">
         <v>199000000</v>
@@ -9206,7 +9415,7 @@
         <v>103000000</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1">
         <v>284000000</v>
@@ -9283,76 +9492,76 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1">
         <v>1052165000</v>
@@ -9402,37 +9611,37 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1">
         <v>12000000</v>
@@ -9444,7 +9653,7 @@
         <v>11000000</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1">
         <v>109000000</v>
@@ -9453,16 +9662,16 @@
         <v>124000000</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1">
         <v>142608000</v>
@@ -9593,34 +9802,34 @@
         <v>1446589000</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ51" s="1">
         <v>265000000</v>
@@ -9632,7 +9841,7 @@
         <v>229000000</v>
       </c>
       <c r="AM51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9759,118 +9968,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9997,16 +10206,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1">
         <v>122900000</v>
@@ -10164,7 +10373,7 @@
         <v>95000000</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1">
         <v>49776000</v>
@@ -10194,16 +10403,16 @@
         <v>1258000</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF56" s="1">
         <v>1200000000</v>
@@ -10212,10 +10421,10 @@
         <v>200000000</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ56" s="1">
         <v>600000000</v>
@@ -10235,76 +10444,76 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1">
         <v>49389000</v>
@@ -10354,76 +10563,76 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1">
         <v>318106000</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1">
         <v>445475000</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1">
         <v>864280000</v>
@@ -10465,7 +10674,7 @@
         <v>2076000000</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10830,118 +11039,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10982,22 +11191,22 @@
         <v>11600000</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1">
         <v>33200000</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1">
         <v>129807000</v>
@@ -11012,22 +11221,22 @@
         <v>167814000</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1">
         <v>341000000</v>
@@ -11045,22 +11254,22 @@
         <v>1000000</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11119,16 +11328,16 @@
         <v>124000000</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W64" s="1">
         <v>188684000</v>
@@ -11306,118 +11515,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11544,31 +11753,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1">
         <v>800000</v>
@@ -12012,7 +12221,7 @@
         <v>-19748000000</v>
       </c>
       <c r="AM71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12258,118 +12467,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12377,118 +12586,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12496,16 +12705,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>51500000</v>
@@ -12615,16 +12824,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>11700000</v>
@@ -12734,16 +12943,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-3200000</v>
@@ -12853,76 +13062,76 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z79" s="1">
         <v>147160000</v>
@@ -12969,158 +13178,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="15">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.9352121137536307E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3202889995011869E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3882285822953314E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0873953435026953E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.1574111066719935E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.9510582010582009E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.9360182213479658E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.8568129330254042E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.51337965192268E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4953921057207442E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.8003833515881709E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.784676200441809E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5002384772145862E-2</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6017064184603452E-2</v>
       </c>
     </row>
@@ -13129,16 +13338,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>-44700000</v>
@@ -13248,76 +13457,76 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1">
         <v>586993000</v>
@@ -13367,16 +13576,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-26400000</v>
@@ -13480,86 +13689,86 @@
       <c r="AM83" s="1">
         <v>-1590000000</v>
       </c>
-      <c r="AT83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="63"/>
+      <c r="AT83" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU83" s="44"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1">
         <v>-660006000</v>
@@ -13568,7 +13777,7 @@
         <v>469049000</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC84" s="1">
         <v>-435000000</v>
@@ -13603,77 +13812,77 @@
       <c r="AM84" s="1">
         <v>390000000</v>
       </c>
-      <c r="AT84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="65"/>
+      <c r="AT84" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU84" s="45"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1">
         <v>-74443000</v>
@@ -13724,12 +13933,12 @@
         <v>755000000</v>
       </c>
       <c r="AM85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT85" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU85" s="47">
         <f>AM17</f>
         <v>228000000</v>
       </c>
@@ -13739,28 +13948,28 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>100000</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H86" s="1">
         <v>-100000</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J86" s="1">
         <v>3200000</v>
@@ -13772,7 +13981,7 @@
         <v>-100000</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N86" s="1">
         <v>75800000</v>
@@ -13850,12 +14059,12 @@
         <v>78000000</v>
       </c>
       <c r="AM86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT86" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU86" s="47">
         <f>AM56</f>
         <v>0</v>
       </c>
@@ -13865,16 +14074,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>15400000</v>
@@ -13978,10 +14187,10 @@
       <c r="AM87" s="10">
         <v>5399000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU87" s="47">
         <f>AM61</f>
         <v>5457000000</v>
       </c>
@@ -13991,16 +14200,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-42900000</v>
@@ -14063,229 +14272,229 @@
         <v>-287906000</v>
       </c>
       <c r="Z88" s="1">
-        <f t="shared" ref="Z88:AE88" si="13">Z93</f>
+        <f t="shared" ref="Z88:AE88" si="16">Z93</f>
         <v>-248427000</v>
       </c>
       <c r="AA88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-169081000</v>
       </c>
       <c r="AB88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-79000000</v>
       </c>
       <c r="AC88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-162000000</v>
       </c>
       <c r="AD88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-190000000</v>
       </c>
       <c r="AE88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-216000000</v>
       </c>
       <c r="AF88" s="1">
-        <f t="shared" ref="AF88:AG88" si="14">AF93</f>
+        <f t="shared" ref="AF88:AG88" si="17">AF93</f>
         <v>-215000000</v>
       </c>
       <c r="AG88" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-253000000</v>
       </c>
       <c r="AH88" s="1">
-        <f t="shared" ref="AH88:AM88" si="15">AH93</f>
+        <f t="shared" ref="AH88:AM88" si="18">AH93</f>
         <v>-345000000</v>
       </c>
       <c r="AI88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-622000000</v>
       </c>
       <c r="AJ88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-441000000</v>
       </c>
       <c r="AK88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-422000000</v>
       </c>
       <c r="AL88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-668000000</v>
       </c>
       <c r="AM88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-787000000</v>
       </c>
-      <c r="AT88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU88" s="34">
+      <c r="AT88" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU88" s="49">
         <f>AU85/(AU86+AU87)</f>
         <v>4.1781198460692691E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="19">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.549222797927461E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.19590901075648035</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.10569996868149076</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.8634548842161293E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.2037037037037042E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.10868779371008555</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.6743525262092169E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.10917293958695233</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.3302653216503444E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.11099289902763688</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.1983083287028461E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.0070942155147643E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.6771891675182423E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.238923242976727E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.9250113517303207E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.3783289860568924E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.8554784639142038E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="19"/>
+        <v>1.9579112675076095E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.7199580558767381E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.5416102858323778E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.9550553124726372E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="19"/>
+        <v>1.7707288357631489E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.511647808310355E-3</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="19"/>
+        <v>1.8580112398210804E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.5302969769609801E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.2259033026193187E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.3371824480369514E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.3732544541514754E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.6051701153422593E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.0188937568455639E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.453203115916754E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.8964141698824959E-2</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.0521621097537328E-2</v>
+      </c>
+      <c r="AT89" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="16">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="16"/>
-        <v>8.549222797927461E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="16"/>
-        <v>0.19590901075648035</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="16"/>
-        <v>0.10569996868149076</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="16"/>
-        <v>8.8634548842161293E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="16"/>
-        <v>9.2037037037037042E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="16"/>
-        <v>0.10868779371008555</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="16"/>
-        <v>8.6743525262092169E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="16"/>
-        <v>0.10917293958695233</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="16"/>
-        <v>8.3302653216503444E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="16"/>
-        <v>0.11099289902763688</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="16"/>
-        <v>4.1983083287028461E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="16"/>
-        <v>4.0070942155147643E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="16"/>
-        <v>9.6771891675182423E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="16"/>
-        <v>8.238923242976727E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="16"/>
-        <v>5.9250113517303207E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.3783289860568924E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.8554784639142038E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="16"/>
-        <v>1.9579112675076095E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.7199580558767381E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="16"/>
-        <v>3.5416102858323778E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="16"/>
-        <v>4.9550553124726372E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="16"/>
-        <v>1.7707288357631489E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="16"/>
-        <v>7.511647808310355E-3</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="16"/>
-        <v>1.8580112398210804E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.5302969769609801E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.3809523809523808E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.2259033026193187E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.3371824480369514E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.3732544541514754E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="16"/>
-        <v>3.6051701153422593E-2</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="16"/>
-        <v>3.0188937568455639E-2</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.453203115916754E-2</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="16"/>
-        <v>2.8964141698824959E-2</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="16"/>
-        <v>3.0521621097537328E-2</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="47">
         <f>AM27</f>
         <v>1074000000</v>
       </c>
@@ -14295,52 +14504,52 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1">
         <v>-246300000</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1">
         <v>-36500000</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1">
         <v>-21017000</v>
@@ -14367,13 +14576,13 @@
         <v>-235324000</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1">
         <v>-322599000</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC90" s="1">
         <v>-4190000000</v>
@@ -14408,10 +14617,10 @@
       <c r="AM90" s="1">
         <v>-441000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="47">
         <f>AM25</f>
         <v>7599000000</v>
       </c>
@@ -14421,16 +14630,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-100600000</v>
@@ -14448,7 +14657,7 @@
         <v>-239000000</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1">
         <v>-572700000</v>
@@ -14534,10 +14743,10 @@
       <c r="AM91" s="1">
         <v>-1492000000</v>
       </c>
-      <c r="AT91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU91" s="34">
+      <c r="AT91" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU91" s="49">
         <f>AU89/AU90</f>
         <v>0.14133438610343466</v>
       </c>
@@ -14547,16 +14756,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>93500000</v>
@@ -14660,10 +14869,10 @@
       <c r="AM92" s="1">
         <v>1363000000</v>
       </c>
-      <c r="AT92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU92" s="36">
+      <c r="AT92" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU92" s="49">
         <f>AU88*(1-AU91)</f>
         <v>3.587607842558492E-2</v>
       </c>
@@ -14673,16 +14882,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>3800000</v>
@@ -14706,34 +14915,34 @@
         <v>100000</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1">
         <v>-32300000</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T93" s="1">
         <v>53321000</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W93" s="1">
         <v>18069000</v>
@@ -14786,26 +14995,26 @@
       <c r="AM93" s="1">
         <v>-787000000</v>
       </c>
-      <c r="AT93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="65"/>
+      <c r="AT93" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU93" s="45"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-46200000</v>
@@ -14909,11 +15118,12 @@
       <c r="AM94" s="10">
         <v>-1357000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+      <c r="AT94" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU94" s="50">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14921,76 +15131,76 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1">
         <v>-750000</v>
@@ -14999,19 +15209,19 @@
         <v>-6441000</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC95" s="1">
         <v>-1000000</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG95" s="1">
         <v>-1207000000</v>
@@ -15020,26 +15230,26 @@
         <v>-205000000</v>
       </c>
       <c r="AI95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK95" s="1">
         <v>-2882000000</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT95" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="58" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AT95" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU95" s="52" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.5792999999999999</v>
+        <v>1.5855999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15047,16 +15257,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>5000000</v>
@@ -15160,10 +15370,10 @@
       <c r="AM96" s="1">
         <v>199000000</v>
       </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="37">
+      <c r="AT96" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU96" s="53">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15172,37 +15382,37 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1">
         <v>-37100000</v>
@@ -15259,7 +15469,7 @@
         <v>-245000000</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF97" s="1">
         <v>-1325000000</v>
@@ -15285,12 +15495,12 @@
       <c r="AM97" s="1">
         <v>-6103000000</v>
       </c>
-      <c r="AT97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU97" s="36">
+      <c r="AT97" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU97" s="49">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.10893886500000001</v>
+        <v>0.109485312</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15298,64 +15508,64 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1">
         <v>-98040000</v>
@@ -15411,26 +15621,26 @@
       <c r="AM98" s="1">
         <v>-873000000</v>
       </c>
-      <c r="AT98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="65"/>
+      <c r="AT98" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU98" s="45"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>24700000</v>
@@ -15493,22 +15703,22 @@
         <v>5374000</v>
       </c>
       <c r="Z99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB99" s="1">
         <v>1730000000</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF99" s="1">
         <v>2637000000</v>
@@ -15534,10 +15744,10 @@
       <c r="AM99" s="1">
         <v>-266000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU99" s="47">
         <f>AU86+AU87</f>
         <v>5457000000</v>
       </c>
@@ -15547,16 +15757,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>29700000</v>
@@ -15660,12 +15870,12 @@
       <c r="AM100" s="10">
         <v>-7043000000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU100" s="34">
+      <c r="AT100" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU100" s="49">
         <f>AU99/AU103</f>
-        <v>4.4687491403060102E-2</v>
+        <v>4.4488649565263473E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15673,16 +15883,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>300000</v>
@@ -15757,41 +15967,41 @@
         <v>-5000000</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT101" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="50" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AT101" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU101" s="54" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>116657708807</v>
+        <v>117203500000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15799,16 +16009,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>29700000</v>
@@ -15912,12 +16122,12 @@
       <c r="AM102" s="10">
         <v>-3001000000</v>
       </c>
-      <c r="AT102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU102" s="34">
+      <c r="AT102" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU102" s="49">
         <f>AU101/AU103</f>
-        <v>0.95531250859693995</v>
+        <v>0.95551135043473656</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15925,16 +16135,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>58200000</v>
@@ -16038,12 +16248,12 @@
       <c r="AM103" s="1">
         <v>5101000000</v>
       </c>
-      <c r="AT103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="38">
+      <c r="AT103" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU103" s="55">
         <f>AU99+AU101</f>
-        <v>122114708807</v>
+        <v>122660500000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16051,31 +16261,31 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11">
         <v>160300000</v>
@@ -16164,500 +16374,628 @@
       <c r="AM104" s="11">
         <v>2100000000</v>
       </c>
-      <c r="AT104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="65"/>
+      <c r="AT104" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU104" s="45"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="20">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>-4201421.2396367937</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>-45824595.341492303</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>-8348322.1476510018</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>25239123.568890646</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="20"/>
+        <v>78349427.556257397</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="20"/>
+        <v>37159376.233714998</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="20"/>
+        <v>118228069.48282671</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="20"/>
+        <v>501690248.71693647</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="20"/>
+        <v>433752072.641137</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="20"/>
+        <v>359405724.43742597</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="20"/>
+        <v>785536083.69522309</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="20"/>
+        <v>1586712277.9313068</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="20"/>
+        <v>614113386.10343456</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="20"/>
+        <v>-124359285.03750491</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="20"/>
+        <v>411655186.34030795</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="20"/>
+        <v>1319924489.9328859</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="20"/>
+        <v>953750755.62574029</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="20"/>
+        <v>1007644755.6257403</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="20"/>
+        <v>2040048655.3493881</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="20"/>
+        <v>1407041310.6987762</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="20"/>
+        <v>-486480524.2795105</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="20"/>
+        <v>1547938479.2735887</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="20"/>
+        <v>2231080142.1239638</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="20"/>
+        <v>939911567.31148839</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="20"/>
+        <v>135943545.20331621</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="20"/>
+        <v>1578171733.1227794</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="20"/>
+        <v>974720884.32688522</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="20"/>
+        <v>2102848401.1054087</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="20"/>
+        <v>3006318594.5519147</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="20"/>
+        <v>3614160284.2479277</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="20"/>
+        <v>2683529806.553494</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="20"/>
+        <v>3064075404.6585078</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="20"/>
+        <v>4297347414.1334391</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>4584287801.0264511</v>
+      </c>
+      <c r="AN105" s="29">
+        <f>AM105*(1+$AU$106)</f>
+        <v>4806092118.3370409</v>
+      </c>
+      <c r="AO105" s="29">
+        <f t="shared" ref="AO105:AR105" si="21">AN105*(1+$AU$106)</f>
+        <v>5038628125.5660954</v>
+      </c>
+      <c r="AP105" s="29">
+        <f t="shared" si="21"/>
+        <v>5282415060.4358664</v>
+      </c>
+      <c r="AQ105" s="29">
+        <f t="shared" si="21"/>
+        <v>5537997283.2554741</v>
+      </c>
+      <c r="AR105" s="29">
+        <f t="shared" si="21"/>
+        <v>5805945492.4419355</v>
+      </c>
+      <c r="AS105" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT105" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>1.4981818181818181</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AK105" si="17">(H106/G106)-1</f>
-        <v>-0.58515283842794763</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.74035087719298254</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="17"/>
-        <v>-3.3783783783783785</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="17"/>
-        <v>-4.9431818181818183</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="17"/>
-        <v>0.77089337175792516</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="17"/>
-        <v>-2.9487388120423108</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="17"/>
-        <v>0.5127348643006262</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="17"/>
-        <v>1.5180789401048944E-2</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="17"/>
-        <v>0.9828711256117455</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="17"/>
-        <v>0.73942136295077465</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.31443211200100907</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.91369508925080833</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="17"/>
-        <v>6.1474592981427696</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="17"/>
-        <v>1.6780309949783212</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.27090250255099557</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="17"/>
-        <v>0.67662221119056021</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="17"/>
-        <v>0.10719859700668177</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.26842210282065626</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.94078430325005169</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="17"/>
-        <v>17.445024810655525</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="17"/>
-        <v>0.42685027146840082</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.23815967523680648</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.74777975133214913</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="17"/>
-        <v>2.65962441314554</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.39191789608723537</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="17"/>
-        <v>1.3343881856540083</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="17"/>
-        <v>0.4749209218255761</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="17"/>
-        <v>-3.0330882352941124E-2</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="17"/>
-        <v>-0.11342812006319114</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="17"/>
-        <v>0.2052744119743406</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="18">(AL106/AK106)-1</f>
-        <v>0.41159077468953287</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="19">(AM106/AL106)-1</f>
-        <v>-3.3933808127356468E-2</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="AU105" s="57">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10567387235307223</v>
+        <v>0.10621053660274023</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-27500000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-68700000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-28500000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-7400000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>17600000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>-69400000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-122900000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>239500000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>362300000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>367800000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>729300000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>1268560000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>869684000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>75058000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>536474000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>1436694000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>1047490000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1756245000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1944512000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1422562000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>84238000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1553772000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>2217000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>1689000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>426000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>1559000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>948000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>2213000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>3264000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>3165000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>2806000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>3382000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>4774000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>4612000000</v>
-      </c>
-      <c r="AN106" s="39">
-        <f>AM106*(1+$AU$106)</f>
-        <v>4848440637.3117809</v>
-      </c>
-      <c r="AO106" s="39">
-        <f t="shared" ref="AO106:AR106" si="20">AN106*(1+$AU$106)</f>
-        <v>5097002734.9384794</v>
-      </c>
-      <c r="AP106" s="39">
-        <f t="shared" si="20"/>
-        <v>5358307716.5145302</v>
-      </c>
-      <c r="AQ106" s="39">
-        <f t="shared" si="20"/>
-        <v>5633008863.8270473</v>
-      </c>
-      <c r="AR106" s="39">
-        <f t="shared" si="20"/>
-        <v>5921792950.0686302</v>
-      </c>
-      <c r="AS106" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="42">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f>(F107/E107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>1.4981818181818181</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-0.58515283842794763</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>-0.74035087719298254</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>-3.3783783783783785</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-4.9431818181818183</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>0.77089337175792516</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-2.9487388120423108</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>0.5127348643006262</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>1.5180789401048944E-2</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>0.9828711256117455</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.73942136295077465</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-0.31443211200100907</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>-0.91369508925080833</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>6.1474592981427696</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>1.6780309949783212</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>-0.27090250255099557</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>0.67662221119056021</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>0.10719859700668177</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>-0.26842210282065626</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>-0.94078430325005169</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>17.445024810655525</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>0.42685027146840082</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>-0.23815967523680648</v>
+      </c>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
+        <v>-0.74777975133214913</v>
+      </c>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
+        <v>2.65962441314554</v>
+      </c>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
+        <v>-0.39191789608723537</v>
+      </c>
+      <c r="AG106" s="15">
+        <f>(AG107/AF107)-1</f>
+        <v>1.3343881856540083</v>
+      </c>
+      <c r="AH106" s="15">
+        <f>(AH107/AG107)-1</f>
+        <v>0.4749209218255761</v>
+      </c>
+      <c r="AI106" s="15">
+        <f>(AI107/AH107)-1</f>
+        <v>-3.0330882352941124E-2</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f>(AJ107/AI107)-1</f>
+        <v>-0.11342812006319114</v>
+      </c>
+      <c r="AK106" s="15">
+        <f>(AK107/AJ107)-1</f>
+        <v>0.2052744119743406</v>
+      </c>
+      <c r="AL106" s="15">
+        <f>(AL107/AK107)-1</f>
+        <v>0.41159077468953287</v>
+      </c>
+      <c r="AM106" s="15">
+        <f>(AM107/AL107)-1</f>
+        <v>-3.3933808127356468E-2</v>
+      </c>
+      <c r="AN106" s="42">
+        <v>5440000000</v>
+      </c>
+      <c r="AO106" s="42">
+        <v>5185000000</v>
+      </c>
+      <c r="AP106" s="42">
+        <v>5414000000</v>
+      </c>
+      <c r="AQ106" s="42">
+        <v>6406000000</v>
+      </c>
+      <c r="AR106" s="42">
+        <v>7916000000</v>
+      </c>
+      <c r="AS106" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT106" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU106" s="59">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>5.1266400110967239E-2</v>
+        <v>4.8383593469180954E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="40"/>
-      <c r="AO107" s="40"/>
-      <c r="AP107" s="40"/>
-      <c r="AQ107" s="40"/>
-      <c r="AR107" s="43">
+      <c r="A107" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-27500000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-68700000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-28500000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-7400000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>17600000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>-69400000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-122900000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>239500000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>362300000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>367800000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>729300000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>1268560000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>869684000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>75058000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>536474000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1436694000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>1047490000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1756245000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1944512000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1422562000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>84238000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1553772000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>2217000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>1689000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>426000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>1559000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>948000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>2213000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>3264000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>3165000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>2806000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>3382000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>4774000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>4612000000</v>
+      </c>
+      <c r="AN107" s="30"/>
+      <c r="AO107" s="30"/>
+      <c r="AP107" s="30"/>
+      <c r="AQ107" s="30"/>
+      <c r="AR107" s="70">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>75239201947.012955</v>
-      </c>
-      <c r="AS107" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="46">
+        <v>99911912165.917374</v>
+      </c>
+      <c r="AS107" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT107" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU107" s="61">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="43">
-        <f t="shared" ref="AN108:AP108" si="21">AN107+AN106</f>
-        <v>4848440637.3117809</v>
-      </c>
-      <c r="AO108" s="43">
-        <f t="shared" si="21"/>
-        <v>5097002734.9384794</v>
-      </c>
-      <c r="AP108" s="43">
-        <f t="shared" si="21"/>
-        <v>5358307716.5145302</v>
-      </c>
-      <c r="AQ108" s="43">
-        <f>AQ107+AQ106</f>
-        <v>5633008863.8270473</v>
-      </c>
-      <c r="AR108" s="43">
+      <c r="AN108" s="70">
+        <f t="shared" ref="AN108:AQ108" si="22">AN107+AN106</f>
+        <v>5440000000</v>
+      </c>
+      <c r="AO108" s="70">
+        <f t="shared" si="22"/>
+        <v>5185000000</v>
+      </c>
+      <c r="AP108" s="70">
+        <f t="shared" si="22"/>
+        <v>5414000000</v>
+      </c>
+      <c r="AQ108" s="70">
+        <f t="shared" si="22"/>
+        <v>6406000000</v>
+      </c>
+      <c r="AR108" s="70">
         <f>AR107+AR106</f>
-        <v>81160994897.081589</v>
-      </c>
-      <c r="AS108" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="48">
+        <v>107827912165.91737</v>
+      </c>
+      <c r="AS108" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT108" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU108" s="59">
         <f>AU105</f>
-        <v>0.10567387235307223</v>
+        <v>0.10621053660274023</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="61"/>
+      <c r="AN109" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO109" s="63"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="50">
+      <c r="AN110" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO110" s="54">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>65402273898.001518</v>
+        <v>82526468460.494965</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="50">
+      <c r="AN111" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO111" s="54">
         <f>AM40</f>
         <v>2581000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="50">
+      <c r="AN112" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO112" s="54">
         <f>AU99</f>
         <v>5457000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="50">
+      <c r="AN113" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO113" s="54">
         <f>AO110+AO111-AO112</f>
-        <v>62526273898.001518</v>
+        <v>79650468460.494965</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO114" s="51">
+      <c r="AN114" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO114" s="64">
         <f>AM34*(1+(5*AS16))</f>
         <v>696540700.0732367</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO115" s="53">
+      <c r="AN115" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO115" s="66">
         <f>AO113/AO114</f>
-        <v>89.766863431565866</v>
+        <v>114.35149224176023</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO116" s="59" cm="1">
+      <c r="AN116" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO116" s="67" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>138.91999999999999</v>
+        <v>139.57</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO117" s="55">
+      <c r="AN117" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO117" s="68">
         <f>AO115/AO116-1</f>
-        <v>-0.35382332686750739</v>
+        <v>-0.18068716599727574</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO118" s="56" t="str">
+      <c r="AN118" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO118" s="69" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16750,8 +17088,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/6951/000000695122000043/0000006951-22-000043-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/6951/000000695122000043/0000006951-22-000043-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:AMAT/explorer/revenue_proj" xr:uid="{40CFEA40-73ED-3A4F-B8E4-2817D57A8D56}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{53B67333-27B8-354C-93D1-7D1CAA1F0CAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Applied Materials.xlsx
+++ b/Technology/Hardware/Applied Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BFFD8D-3D58-BC44-92A5-423F9392C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035CCC45-08CD-D540-862B-3FA33D2878BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,8 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -927,12 +927,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -946,80 +940,80 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2411,14 +2405,19 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.857E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2433,6 +2432,11 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2560,11 +2564,11 @@
     <v>Powered by Refinitiv</v>
     <v>146.69</v>
     <v>71.12</v>
-    <v>1.5855999999999999</v>
-    <v>-0.81</v>
-    <v>-5.77E-3</v>
-    <v>0.41</v>
-    <v>2.9380000000000001E-3</v>
+    <v>1.5777000000000001</v>
+    <v>1.71</v>
+    <v>1.2359999999999999E-2</v>
+    <v>-0.55000000000000004</v>
+    <v>-3.9269999999999999E-3</v>
     <v>USD</v>
     <v>Applied Materials, Inc. provides manufacturing equipment, services and software to the semiconductor, display, and related industries. The Company operates through three segments: Semiconductor Systems, Applied Global Services, and Display and Adjacent Markets. Its Semiconductor Systems segment primarily consists of capital equipment used to fabricate semiconductor chips. Its Applied Global Services segment provides integrated solutions to optimize equipment and fab performance and productivity, including spares, upgrades, services, certain remanufactured old equipment and factory automation software for semiconductor, display and solar products. Its Display and Adjacent Markets segment includes products for manufacturing liquid crystal and organic light-emitting diode (OLED) displays, and other display technologies for televisions, monitors, laptops, personal computers, electronic tablets, smart phones, and other consumer-oriented devices and equipment upgrades.</v>
     <v>33000</v>
@@ -2572,25 +2576,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3050 Bowers Ave, SANTA CLARA, CA, 95054-3299 US</v>
-    <v>142.12</v>
+    <v>141.4</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45114.998240185159</v>
+    <v>45132.999615728906</v>
     <v>0</v>
-    <v>139.41</v>
-    <v>117203500000</v>
+    <v>138.5</v>
+    <v>116179100000</v>
     <v>APPLIED MATERIALS, INC.</v>
     <v>APPLIED MATERIALS, INC.</v>
-    <v>139.62</v>
-    <v>18.407800000000002</v>
-    <v>140.38</v>
-    <v>139.57</v>
-    <v>139.97999999999999</v>
+    <v>138.69</v>
+    <v>18.2469</v>
+    <v>138.35</v>
+    <v>140.06</v>
+    <v>139.51</v>
     <v>839747400</v>
     <v>AMAT</v>
     <v>APPLIED MATERIALS, INC. (XNAS:AMAT)</v>
-    <v>3459428</v>
-    <v>5669467</v>
+    <v>5038481</v>
+    <v>6272857</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2755,9 +2759,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3178,10 +3182,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO95" sqref="AO95"/>
+      <selection pane="bottomRight" activeCell="AP15" sqref="AP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3755,7 +3759,7 @@
         <v>0.11802454147335562</v>
       </c>
       <c r="AN4" s="16">
-        <f t="shared" ref="F4:AR4" si="1">(AN3/AM3)-1</f>
+        <f t="shared" ref="AN4:AR4" si="1">(AN3/AM3)-1</f>
         <v>-1.5551677331782088E-2</v>
       </c>
       <c r="AO4" s="16">
@@ -5394,17 +5398,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-4.1153774213629021E-2</v>
       </c>
-      <c r="AT16" s="26">
+      <c r="AT16" s="35">
         <f>AU101/AM3</f>
-        <v>4.5454140003878223</v>
-      </c>
-      <c r="AU16" s="26">
+        <v>4.5056854760519682</v>
+      </c>
+      <c r="AU16" s="35">
         <f>AU101/AM28</f>
-        <v>17.962222222222223</v>
-      </c>
-      <c r="AV16" s="27">
+        <v>17.805226053639846</v>
+      </c>
+      <c r="AV16" s="36">
         <f>AU101/AM107</f>
-        <v>25.412727666955767</v>
+        <v>25.19061144839549</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5775,36 +5779,36 @@
       <c r="AM19" s="10">
         <v>8271000000</v>
       </c>
-      <c r="AN19" s="32">
+      <c r="AN19" s="30">
         <v>7628000000</v>
       </c>
-      <c r="AO19" s="32">
+      <c r="AO19" s="30">
         <v>7170000000</v>
       </c>
-      <c r="AP19" s="32">
+      <c r="AP19" s="30">
         <v>8562000000</v>
       </c>
-      <c r="AQ19" s="32">
+      <c r="AQ19" s="30">
         <v>9960000000</v>
       </c>
-      <c r="AR19" s="32">
+      <c r="AR19" s="30">
         <v>10924000000</v>
       </c>
-      <c r="AS19" s="28">
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-2876000000</v>
       </c>
-      <c r="AT19" s="37">
+      <c r="AT19" s="35">
         <f>AU101/AN3</f>
-        <v>4.6172195083517176</v>
-      </c>
-      <c r="AU19" s="37">
+        <v>4.5768633785061459</v>
+      </c>
+      <c r="AU19" s="35">
         <f>AU101/AN28</f>
-        <v>18.788634177621031</v>
-      </c>
-      <c r="AV19" s="38">
+        <v>18.624414876563002</v>
+      </c>
+      <c r="AV19" s="36">
         <f>AU101/AN105</f>
-        <v>24.386444769301189</v>
+        <v>24.173298625869702</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6099,23 +6103,23 @@
       <c r="AM21" s="2">
         <v>0.32079999999999997</v>
       </c>
-      <c r="AN21" s="33">
+      <c r="AN21" s="31">
         <f>AN19/AN3</f>
         <v>0.30050425464859754</v>
       </c>
-      <c r="AO21" s="33">
+      <c r="AO21" s="31">
         <f t="shared" ref="AO21:AR21" si="7">AO19/AO3</f>
         <v>0.29170056956875506</v>
       </c>
-      <c r="AP21" s="33">
+      <c r="AP21" s="31">
         <f t="shared" si="7"/>
         <v>0.31134545454545454</v>
       </c>
-      <c r="AQ21" s="33">
+      <c r="AQ21" s="31">
         <f t="shared" si="7"/>
         <v>0.32743770136103623</v>
       </c>
-      <c r="AR21" s="33">
+      <c r="AR21" s="31">
         <f t="shared" si="7"/>
         <v>0.33745211911528483</v>
       </c>
@@ -6244,13 +6248,13 @@
       <c r="AM22" s="10">
         <v>7788000000</v>
       </c>
-      <c r="AU22" s="39">
+      <c r="AU22" s="37">
         <f>(-1*AM98)/AU101</f>
-        <v>7.4485830201316515E-3</v>
-      </c>
-      <c r="AV22" s="40">
+        <v>7.5142603101590565E-3</v>
+      </c>
+      <c r="AV22" s="38">
         <f>AM107/AU101</f>
-        <v>3.9350360697419443E-2</v>
+        <v>3.9697329381962847E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6966,19 +6970,19 @@
       <c r="AM28" s="11">
         <v>6525000000</v>
       </c>
-      <c r="AN28" s="34">
+      <c r="AN28" s="32">
         <v>6238000000</v>
       </c>
-      <c r="AO28" s="34">
+      <c r="AO28" s="32">
         <v>5889000000</v>
       </c>
-      <c r="AP28" s="34">
+      <c r="AP28" s="32">
         <v>7089000000</v>
       </c>
-      <c r="AQ28" s="34">
+      <c r="AQ28" s="32">
         <v>7694000000</v>
       </c>
-      <c r="AR28" s="34">
+      <c r="AR28" s="32">
         <v>7983000000</v>
       </c>
     </row>
@@ -7274,23 +7278,23 @@
       <c r="AM30" s="2">
         <v>0.25309999999999999</v>
       </c>
-      <c r="AN30" s="35">
+      <c r="AN30" s="33">
         <f>AN28/AN3</f>
         <v>0.24574535140245823</v>
       </c>
-      <c r="AO30" s="35">
+      <c r="AO30" s="33">
         <f t="shared" ref="AO30:AR30" si="11">AO28/AO3</f>
         <v>0.23958502847843777</v>
       </c>
-      <c r="AP30" s="35">
+      <c r="AP30" s="33">
         <f t="shared" si="11"/>
         <v>0.25778181818181817</v>
       </c>
-      <c r="AQ30" s="35">
+      <c r="AQ30" s="33">
         <f t="shared" si="11"/>
         <v>0.25294233677427841</v>
       </c>
-      <c r="AR30" s="35">
+      <c r="AR30" s="33">
         <f t="shared" si="11"/>
         <v>0.24660200172989002</v>
       </c>
@@ -7413,19 +7417,19 @@
       <c r="AM31" s="12">
         <v>7.49</v>
       </c>
-      <c r="AN31" s="36">
+      <c r="AN31" s="34">
         <v>7.43</v>
       </c>
-      <c r="AO31" s="36">
+      <c r="AO31" s="34">
         <v>7.01</v>
       </c>
-      <c r="AP31" s="36">
+      <c r="AP31" s="34">
         <v>8.44</v>
       </c>
-      <c r="AQ31" s="36">
+      <c r="AQ31" s="34">
         <v>9.16</v>
       </c>
-      <c r="AR31" s="36">
+      <c r="AR31" s="34">
         <v>9.51</v>
       </c>
     </row>
@@ -13689,10 +13693,10 @@
       <c r="AM83" s="1">
         <v>-1590000000</v>
       </c>
-      <c r="AT83" s="43" t="s">
+      <c r="AT83" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="AU83" s="44"/>
+      <c r="AU83" s="67"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13812,10 +13816,10 @@
       <c r="AM84" s="1">
         <v>390000000</v>
       </c>
-      <c r="AT84" s="45" t="s">
+      <c r="AT84" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AU84" s="45"/>
+      <c r="AU84" s="68"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13935,10 +13939,10 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT85" s="46" t="s">
+      <c r="AT85" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="AU85" s="47">
+      <c r="AU85" s="42">
         <f>AM17</f>
         <v>228000000</v>
       </c>
@@ -14061,10 +14065,10 @@
       <c r="AM86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT86" s="46" t="s">
+      <c r="AT86" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="AU86" s="47">
+      <c r="AU86" s="42">
         <f>AM56</f>
         <v>0</v>
       </c>
@@ -14187,10 +14191,10 @@
       <c r="AM87" s="10">
         <v>5399000000</v>
       </c>
-      <c r="AT87" s="46" t="s">
+      <c r="AT87" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="AU87" s="47">
+      <c r="AU87" s="42">
         <f>AM61</f>
         <v>5457000000</v>
       </c>
@@ -14327,10 +14331,10 @@
         <f t="shared" si="18"/>
         <v>-787000000</v>
       </c>
-      <c r="AT88" s="48" t="s">
+      <c r="AT88" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AU88" s="49">
+      <c r="AU88" s="44">
         <f>AU85/(AU86+AU87)</f>
         <v>4.1781198460692691E-2</v>
       </c>
@@ -14491,10 +14495,10 @@
         <f t="shared" si="19"/>
         <v>3.0521621097537328E-2</v>
       </c>
-      <c r="AT89" s="46" t="s">
+      <c r="AT89" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="47">
+      <c r="AU89" s="42">
         <f>AM27</f>
         <v>1074000000</v>
       </c>
@@ -14617,10 +14621,10 @@
       <c r="AM90" s="1">
         <v>-441000000</v>
       </c>
-      <c r="AT90" s="46" t="s">
+      <c r="AT90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="47">
+      <c r="AU90" s="42">
         <f>AM25</f>
         <v>7599000000</v>
       </c>
@@ -14743,10 +14747,10 @@
       <c r="AM91" s="1">
         <v>-1492000000</v>
       </c>
-      <c r="AT91" s="48" t="s">
+      <c r="AT91" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AU91" s="49">
+      <c r="AU91" s="44">
         <f>AU89/AU90</f>
         <v>0.14133438610343466</v>
       </c>
@@ -14869,10 +14873,10 @@
       <c r="AM92" s="1">
         <v>1363000000</v>
       </c>
-      <c r="AT92" s="48" t="s">
+      <c r="AT92" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="AU92" s="49">
+      <c r="AU92" s="44">
         <f>AU88*(1-AU91)</f>
         <v>3.587607842558492E-2</v>
       </c>
@@ -14995,10 +14999,10 @@
       <c r="AM93" s="1">
         <v>-787000000</v>
       </c>
-      <c r="AT93" s="45" t="s">
+      <c r="AT93" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="AU93" s="45"/>
+      <c r="AU93" s="68"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15118,12 +15122,12 @@
       <c r="AM94" s="10">
         <v>-1357000000</v>
       </c>
-      <c r="AT94" s="46" t="s">
+      <c r="AT94" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="AU94" s="50">
+      <c r="AU94" s="45">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.857E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15244,12 +15248,12 @@
       <c r="AM95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT95" s="51" t="s">
+      <c r="AT95" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AU95" s="52" cm="1">
+      <c r="AU95" s="47" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.5855999999999999</v>
+        <v>1.5777000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15370,10 +15374,10 @@
       <c r="AM96" s="1">
         <v>199000000</v>
       </c>
-      <c r="AT96" s="46" t="s">
+      <c r="AT96" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="AU96" s="53">
+      <c r="AU96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15495,12 +15499,12 @@
       <c r="AM97" s="1">
         <v>-6103000000</v>
       </c>
-      <c r="AT97" s="48" t="s">
+      <c r="AT97" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="AU97" s="49">
+      <c r="AU97" s="44">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.109485312</v>
+        <v>0.110244911</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15621,10 +15625,10 @@
       <c r="AM98" s="1">
         <v>-873000000</v>
       </c>
-      <c r="AT98" s="45" t="s">
+      <c r="AT98" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AU98" s="45"/>
+      <c r="AU98" s="68"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15744,10 +15748,10 @@
       <c r="AM99" s="1">
         <v>-266000000</v>
       </c>
-      <c r="AT99" s="46" t="s">
+      <c r="AT99" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="AU99" s="47">
+      <c r="AU99" s="42">
         <f>AU86+AU87</f>
         <v>5457000000</v>
       </c>
@@ -15870,12 +15874,12 @@
       <c r="AM100" s="10">
         <v>-7043000000</v>
       </c>
-      <c r="AT100" s="48" t="s">
+      <c r="AT100" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="AU100" s="49">
+      <c r="AU100" s="44">
         <f>AU99/AU103</f>
-        <v>4.4488649565263473E-2</v>
+        <v>4.4863325936954572E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15996,12 +16000,12 @@
       <c r="AM101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT101" s="51" t="s">
+      <c r="AT101" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AU101" s="54" cm="1">
+      <c r="AU101" s="49" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>117203500000</v>
+        <v>116179100000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16122,12 +16126,12 @@
       <c r="AM102" s="10">
         <v>-3001000000</v>
       </c>
-      <c r="AT102" s="48" t="s">
+      <c r="AT102" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="AU102" s="49">
+      <c r="AU102" s="44">
         <f>AU101/AU103</f>
-        <v>0.95551135043473656</v>
+        <v>0.95513667406304548</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16248,12 +16252,12 @@
       <c r="AM103" s="1">
         <v>5101000000</v>
       </c>
-      <c r="AT103" s="48" t="s">
+      <c r="AT103" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="AU103" s="55">
+      <c r="AU103" s="50">
         <f>AU99+AU101</f>
-        <v>122660500000</v>
+        <v>121636100000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16374,10 +16378,10 @@
       <c r="AM104" s="11">
         <v>2100000000</v>
       </c>
-      <c r="AT104" s="45" t="s">
+      <c r="AT104" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AU104" s="45"/>
+      <c r="AU104" s="68"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16535,35 +16539,35 @@
         <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
         <v>4584287801.0264511</v>
       </c>
-      <c r="AN105" s="29">
+      <c r="AN105" s="27">
         <f>AM105*(1+$AU$106)</f>
         <v>4806092118.3370409</v>
       </c>
-      <c r="AO105" s="29">
+      <c r="AO105" s="27">
         <f t="shared" ref="AO105:AR105" si="21">AN105*(1+$AU$106)</f>
         <v>5038628125.5660954</v>
       </c>
-      <c r="AP105" s="29">
+      <c r="AP105" s="27">
         <f t="shared" si="21"/>
         <v>5282415060.4358664</v>
       </c>
-      <c r="AQ105" s="29">
+      <c r="AQ105" s="27">
         <f t="shared" si="21"/>
         <v>5537997283.2554741</v>
       </c>
-      <c r="AR105" s="29">
+      <c r="AR105" s="27">
         <f t="shared" si="21"/>
         <v>5805945492.4419355</v>
       </c>
-      <c r="AS105" s="30" t="s">
+      <c r="AS105" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AT105" s="56" t="s">
+      <c r="AT105" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="AU105" s="57">
+      <c r="AU105" s="52">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10621053660274023</v>
+        <v>0.10690847782466323</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16572,181 +16576,181 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="22">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.4981818181818181</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.58515283842794763</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.74035087719298254</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="22"/>
         <v>-3.3783783783783785</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="22"/>
         <v>-4.9431818181818183</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.77089337175792516</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.9487388120423108</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.5127348643006262</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.5180789401048944E-2</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.9828711256117455</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.73942136295077465</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.31443211200100907</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.91369508925080833</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="22"/>
         <v>6.1474592981427696</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.6780309949783212</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.27090250255099557</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.67662221119056021</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.10719859700668177</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.26842210282065626</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.94078430325005169</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="22"/>
         <v>17.445024810655525</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.42685027146840082</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.23815967523680648</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.74777975133214913</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.65962441314554</v>
       </c>
       <c r="AF106" s="15">
-        <f>(AF107/AE107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.39191789608723537</v>
       </c>
       <c r="AG106" s="15">
-        <f>(AG107/AF107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.3343881856540083</v>
       </c>
       <c r="AH106" s="15">
-        <f>(AH107/AG107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.4749209218255761</v>
       </c>
       <c r="AI106" s="15">
-        <f>(AI107/AH107)-1</f>
+        <f t="shared" si="22"/>
         <v>-3.0330882352941124E-2</v>
       </c>
       <c r="AJ106" s="15">
-        <f>(AJ107/AI107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.11342812006319114</v>
       </c>
       <c r="AK106" s="15">
-        <f>(AK107/AJ107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.2052744119743406</v>
       </c>
       <c r="AL106" s="15">
-        <f>(AL107/AK107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.41159077468953287</v>
       </c>
       <c r="AM106" s="15">
-        <f>(AM107/AL107)-1</f>
+        <f t="shared" si="22"/>
         <v>-3.3933808127356468E-2</v>
       </c>
-      <c r="AN106" s="42">
+      <c r="AN106" s="40">
         <v>5440000000</v>
       </c>
-      <c r="AO106" s="42">
+      <c r="AO106" s="40">
         <v>5185000000</v>
       </c>
-      <c r="AP106" s="42">
+      <c r="AP106" s="40">
         <v>5414000000</v>
       </c>
-      <c r="AQ106" s="42">
+      <c r="AQ106" s="40">
         <v>6406000000</v>
       </c>
-      <c r="AR106" s="42">
+      <c r="AR106" s="40">
         <v>7916000000</v>
       </c>
-      <c r="AS106" s="30" t="s">
+      <c r="AS106" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AT106" s="58" t="s">
+      <c r="AT106" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="AU106" s="59">
+      <c r="AU106" s="54">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>4.8383593469180954E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="39" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16863,139 +16867,139 @@
       <c r="AM107" s="1">
         <v>4612000000</v>
       </c>
-      <c r="AN107" s="30"/>
-      <c r="AO107" s="30"/>
-      <c r="AP107" s="30"/>
-      <c r="AQ107" s="30"/>
-      <c r="AR107" s="70">
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="64">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>99911912165.917374</v>
-      </c>
-      <c r="AS107" s="31" t="s">
+        <v>99060563881.66507</v>
+      </c>
+      <c r="AS107" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="AT107" s="60" t="s">
+      <c r="AT107" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="AU107" s="61">
+      <c r="AU107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="70">
-        <f t="shared" ref="AN108:AQ108" si="22">AN107+AN106</f>
+      <c r="AN108" s="64">
+        <f t="shared" ref="AN108:AQ108" si="23">AN107+AN106</f>
         <v>5440000000</v>
       </c>
-      <c r="AO108" s="70">
-        <f t="shared" si="22"/>
+      <c r="AO108" s="64">
+        <f t="shared" si="23"/>
         <v>5185000000</v>
       </c>
-      <c r="AP108" s="70">
-        <f t="shared" si="22"/>
+      <c r="AP108" s="64">
+        <f t="shared" si="23"/>
         <v>5414000000</v>
       </c>
-      <c r="AQ108" s="70">
-        <f t="shared" si="22"/>
+      <c r="AQ108" s="64">
+        <f t="shared" si="23"/>
         <v>6406000000</v>
       </c>
-      <c r="AR108" s="70">
+      <c r="AR108" s="64">
         <f>AR107+AR106</f>
-        <v>107827912165.91737</v>
-      </c>
-      <c r="AS108" s="31" t="s">
+        <v>106976563881.66507</v>
+      </c>
+      <c r="AS108" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="AT108" s="62" t="s">
+      <c r="AT108" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="AU108" s="59">
+      <c r="AU108" s="54">
         <f>AU105</f>
-        <v>0.10621053660274023</v>
+        <v>0.10690847782466323</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="63" t="s">
+      <c r="AN109" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="AO109" s="63"/>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="64" t="s">
+      <c r="AN110" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="AO110" s="54">
+      <c r="AO110" s="49">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>82526468460.494965</v>
+        <v>81782396142.766678</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="64" t="s">
+      <c r="AN111" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="AO111" s="54">
+      <c r="AO111" s="49">
         <f>AM40</f>
         <v>2581000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="64" t="s">
+      <c r="AN112" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="AO112" s="54">
+      <c r="AO112" s="49">
         <f>AU99</f>
         <v>5457000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="64" t="s">
+      <c r="AN113" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="AO113" s="54">
+      <c r="AO113" s="49">
         <f>AO110+AO111-AO112</f>
-        <v>79650468460.494965</v>
+        <v>78906396142.766678</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="64" t="s">
+      <c r="AN114" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="AO114" s="64">
+      <c r="AO114" s="58">
         <f>AM34*(1+(5*AS16))</f>
         <v>696540700.0732367</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="65" t="s">
+      <c r="AN115" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="AO115" s="66">
+      <c r="AO115" s="60">
         <f>AO113/AO114</f>
-        <v>114.35149224176023</v>
+        <v>113.2832527007685</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="64" t="s">
+      <c r="AN116" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="AO116" s="67" cm="1">
+      <c r="AO116" s="61" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>139.57</v>
+        <v>140.06</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="65" t="s">
+      <c r="AN117" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="AO117" s="68">
+      <c r="AO117" s="62">
         <f>AO115/AO116-1</f>
-        <v>-0.18068716599727574</v>
+        <v>-0.19118054618900115</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="65" t="s">
+      <c r="AN118" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="AO118" s="69" t="str">
+      <c r="AO118" s="63" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Applied Materials.xlsx
+++ b/Technology/Hardware/Applied Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035CCC45-08CD-D540-862B-3FA33D2878BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE42ED54-47CD-DB45-9DF0-D2E7135DCA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,24 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$107</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$A$28</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$B$107:$AR$107</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$B$1:$AR$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$28:$AR$28</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$3:$AR$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$107:$AR$107</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$1:$AR$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$B$28:$AR$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$B$3:$AR$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$A$107</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -73,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -561,9 +579,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -574,6 +589,15 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -588,7 +612,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +724,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -880,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1002,6 +1033,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,6 +1058,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1069,6 +1121,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37885425248996196"/>
+          <c:y val="3.5214090072449779E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1102,15 +1162,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6570480928689903E-2"/>
-          <c:y val="0.14345593311880719"/>
-          <c:w val="0.8437280265339967"/>
-          <c:h val="0.66485183329105602"/>
+          <c:x val="9.7152317880794689E-2"/>
+          <c:y val="0.17136456741620332"/>
+          <c:w val="0.83132450331125818"/>
+          <c:h val="0.569747088724887"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1159,12 +1219,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AR$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>174600000</c:v>
                 </c:pt>
@@ -1278,13 +1476,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>25785000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25384000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24580000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27500000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30418000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32372000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1047-7849-8C42-987AE9BDFFE0}"/>
+              <c16:uniqueId val="{00000000-9E98-8540-890A-586D83415E0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1335,12 +1548,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>9300000</c:v>
                 </c:pt>
@@ -1454,13 +1805,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6525000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6238000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5889000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7089000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7694000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7983000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1047-7849-8C42-987AE9BDFFE0}"/>
+              <c16:uniqueId val="{00000001-9E98-8540-890A-586D83415E0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1511,12 +1877,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AR$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1630,13 +2134,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4612000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5440000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5185000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5414000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6406000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7916000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1047-7849-8C42-987AE9BDFFE0}"/>
+              <c16:uniqueId val="{00000002-9E98-8540-890A-586D83415E0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1648,13 +2167,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="764776607"/>
-        <c:axId val="1036812447"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="203540848"/>
+        <c:axId val="203546576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="764776607"/>
+        <c:axId val="203540848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +2201,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1694,7 +2213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1036812447"/>
+        <c:crossAx val="203546576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1702,7 +2221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1036812447"/>
+        <c:axId val="203546576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1751,7 +2270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764776607"/>
+        <c:crossAx val="203540848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1769,10 +2288,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34391611496324154"/>
-          <c:y val="0.89960419675635206"/>
-          <c:w val="0.31482106527728809"/>
-          <c:h val="5.9653710543700708E-2"/>
+          <c:x val="0.34549908744850599"/>
+          <c:y val="0.88315803589568564"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="6.5621469453478326E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1879,7 +2398,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2117,7 +2636,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2352,22 +2870,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:colOff>1587500</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC591B7-EDF2-91EE-1315-7F7498D891B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B3F9E1-6503-7DD4-485C-CDC1F2FF54D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,48 +2913,40 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
+      <sheetName val="ROIC"/>
       <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
-      <sheetName val="Healthcare"/>
-      <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.857E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.7160000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2562,13 +3072,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>146.69</v>
+    <v>155.26</v>
     <v>71.12</v>
-    <v>1.5777000000000001</v>
-    <v>1.71</v>
-    <v>1.2359999999999999E-2</v>
-    <v>-0.55000000000000004</v>
-    <v>-3.9269999999999999E-3</v>
+    <v>1.5814999999999999</v>
+    <v>1.01</v>
+    <v>7.2519999999999998E-3</v>
+    <v>0.68</v>
+    <v>4.8470000000000006E-3</v>
     <v>USD</v>
     <v>Applied Materials, Inc. provides manufacturing equipment, services and software to the semiconductor, display, and related industries. The Company operates through three segments: Semiconductor Systems, Applied Global Services, and Display and Adjacent Markets. Its Semiconductor Systems segment primarily consists of capital equipment used to fabricate semiconductor chips. Its Applied Global Services segment provides integrated solutions to optimize equipment and fab performance and productivity, including spares, upgrades, services, certain remanufactured old equipment and factory automation software for semiconductor, display and solar products. Its Display and Adjacent Markets segment includes products for manufacturing liquid crystal and organic light-emitting diode (OLED) displays, and other display technologies for televisions, monitors, laptops, personal computers, electronic tablets, smart phones, and other consumer-oriented devices and equipment upgrades.</v>
     <v>33000</v>
@@ -2576,25 +3086,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3050 Bowers Ave, SANTA CLARA, CA, 95054-3299 US</v>
-    <v>141.4</v>
+    <v>141.16</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45132.999615728906</v>
+    <v>45205.999673032034</v>
     <v>0</v>
-    <v>138.5</v>
-    <v>116179100000</v>
+    <v>135.15</v>
+    <v>117357300000</v>
     <v>APPLIED MATERIALS, INC.</v>
     <v>APPLIED MATERIALS, INC.</v>
-    <v>138.69</v>
-    <v>18.2469</v>
-    <v>138.35</v>
-    <v>140.06</v>
-    <v>139.51</v>
-    <v>839747400</v>
+    <v>138.05000000000001</v>
+    <v>18.363600000000002</v>
+    <v>139.28</v>
+    <v>140.29</v>
+    <v>140.97</v>
+    <v>836533900</v>
     <v>AMAT</v>
     <v>APPLIED MATERIALS, INC. (XNAS:AMAT)</v>
-    <v>5038481</v>
-    <v>6272857</v>
+    <v>5234440</v>
+    <v>5488871</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3179,13 +3689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV118"/>
+  <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP15" sqref="AP15"/>
+      <selection pane="bottomRight" activeCell="AV110" sqref="AV110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4032,16 +4542,20 @@
       <c r="AM6" s="10">
         <v>11993000000</v>
       </c>
-      <c r="AS6" s="18" t="s">
+      <c r="AN6" s="30">
+        <f>AN3*AN7</f>
+        <v>11757868800</v>
+      </c>
+      <c r="AS6" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AT6" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AU6" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="AV6" s="19" t="s">
+      <c r="AV6" s="70" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4163,21 +4677,24 @@
       <c r="AM7" s="2">
         <v>0.46510000000000001</v>
       </c>
+      <c r="AN7" s="2">
+        <v>0.4632</v>
+      </c>
       <c r="AS7" s="17">
-        <f>AM7</f>
-        <v>0.46510000000000001</v>
+        <f>AN7</f>
+        <v>0.4632</v>
       </c>
       <c r="AT7" s="20">
-        <f>AM21</f>
-        <v>0.32079999999999997</v>
+        <f>AN21</f>
+        <v>0.30050425464859754</v>
       </c>
       <c r="AU7" s="20">
-        <f>AM30</f>
-        <v>0.25309999999999999</v>
+        <f>AN30</f>
+        <v>0.24574535140245823</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM107/AM3</f>
-        <v>0.17886368043436107</v>
+        <f>AN107/AN3</f>
+        <v>0.21430822565395524</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5399,16 +5916,16 @@
         <v>-4.1153774213629021E-2</v>
       </c>
       <c r="AT16" s="35">
-        <f>AU101/AM3</f>
-        <v>4.5056854760519682</v>
+        <f>AU102/AM3</f>
+        <v>4.5513787085514839</v>
       </c>
       <c r="AU16" s="35">
-        <f>AU101/AM28</f>
-        <v>17.805226053639846</v>
+        <f>AU102/AM28</f>
+        <v>17.985793103448277</v>
       </c>
       <c r="AV16" s="36">
-        <f>AU101/AM107</f>
-        <v>25.19061144839549</v>
+        <f>AU102/AM107</f>
+        <v>25.446075455333911</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5799,16 +6316,16 @@
         <v>-2876000000</v>
       </c>
       <c r="AT19" s="35">
-        <f>AU101/AN3</f>
-        <v>4.5768633785061459</v>
+        <f>AU102/AN3</f>
+        <v>4.6232784431137723</v>
       </c>
       <c r="AU19" s="35">
-        <f>AU101/AN28</f>
-        <v>18.624414876563002</v>
+        <f>AU102/AN28</f>
+        <v>18.813289515870473</v>
       </c>
       <c r="AV19" s="36">
-        <f>AU101/AN105</f>
-        <v>24.173298625869702</v>
+        <f>AU102/AN105</f>
+        <v>24.418445820511423</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,11 +6640,14 @@
         <f t="shared" si="7"/>
         <v>0.33745211911528483</v>
       </c>
+      <c r="AT21" s="65" t="s">
+        <v>168</v>
+      </c>
       <c r="AU21" s="18" t="s">
         <v>161</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6248,13 +6768,17 @@
       <c r="AM22" s="10">
         <v>7788000000</v>
       </c>
+      <c r="AT22" s="17">
+        <f>SUM(AN29:AR29)/4</f>
+        <v>5.6685718287863229E-2</v>
+      </c>
       <c r="AU22" s="37">
-        <f>(-1*AM98)/AU101</f>
-        <v>7.5142603101590565E-3</v>
+        <f>(-1*AM98)/AU102</f>
+        <v>7.438821445278649E-3</v>
       </c>
       <c r="AV22" s="38">
-        <f>AM107/AU101</f>
-        <v>3.9697329381962847E-2</v>
+        <f>AN107/AU102</f>
+        <v>4.635416799807085E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -13575,7 +14099,7 @@
         <v>-1109000000</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -13693,12 +14217,8 @@
       <c r="AM83" s="1">
         <v>-1590000000</v>
       </c>
-      <c r="AT83" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU83" s="67"/>
     </row>
-    <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -13816,12 +14336,12 @@
       <c r="AM84" s="1">
         <v>390000000</v>
       </c>
-      <c r="AT84" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU84" s="68"/>
+      <c r="AT84" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU84" s="73"/>
     </row>
-    <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -13939,13 +14459,10 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT85" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU85" s="42">
-        <f>AM17</f>
-        <v>228000000</v>
-      </c>
+      <c r="AT85" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU85" s="75"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -14066,11 +14583,11 @@
         <v>91</v>
       </c>
       <c r="AT86" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU86" s="42">
-        <f>AM56</f>
-        <v>0</v>
+        <f>AM17</f>
+        <v>228000000</v>
       </c>
     </row>
     <row r="87" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14192,11 +14709,11 @@
         <v>5399000000</v>
       </c>
       <c r="AT87" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU87" s="42">
-        <f>AM61</f>
-        <v>5457000000</v>
+        <f>AM56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14331,12 +14848,12 @@
         <f t="shared" si="18"/>
         <v>-787000000</v>
       </c>
-      <c r="AT88" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU88" s="44">
-        <f>AU85/(AU86+AU87)</f>
-        <v>4.1781198460692691E-2</v>
+      <c r="AT88" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU88" s="42">
+        <f>AM61</f>
+        <v>5457000000</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14495,12 +15012,12 @@
         <f t="shared" si="19"/>
         <v>3.0521621097537328E-2</v>
       </c>
-      <c r="AT89" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU89" s="42">
-        <f>AM27</f>
-        <v>1074000000</v>
+      <c r="AT89" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU89" s="44">
+        <f>AU86/(AU87+AU88)</f>
+        <v>4.1781198460692691E-2</v>
       </c>
     </row>
     <row r="90" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14622,11 +15139,11 @@
         <v>-441000000</v>
       </c>
       <c r="AT90" s="41" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="AU90" s="42">
-        <f>AM25</f>
-        <v>7599000000</v>
+        <f>AM27</f>
+        <v>1074000000</v>
       </c>
     </row>
     <row r="91" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14747,12 +15264,12 @@
       <c r="AM91" s="1">
         <v>-1492000000</v>
       </c>
-      <c r="AT91" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU91" s="44">
-        <f>AU89/AU90</f>
-        <v>0.14133438610343466</v>
+      <c r="AT91" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU91" s="42">
+        <f>AM25</f>
+        <v>7599000000</v>
       </c>
     </row>
     <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14874,14 +15391,14 @@
         <v>1363000000</v>
       </c>
       <c r="AT92" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU92" s="44">
-        <f>AU88*(1-AU91)</f>
-        <v>3.587607842558492E-2</v>
+        <f>AU90/AU91</f>
+        <v>0.14133438610343466</v>
       </c>
     </row>
-    <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -14999,12 +15516,15 @@
       <c r="AM93" s="1">
         <v>-787000000</v>
       </c>
-      <c r="AT93" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU93" s="68"/>
+      <c r="AT93" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU93" s="44">
+        <f>AU89*(1-AU92)</f>
+        <v>3.587607842558492E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -15122,13 +15642,10 @@
       <c r="AM94" s="10">
         <v>-1357000000</v>
       </c>
-      <c r="AT94" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU94" s="45">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.857E-2</v>
-      </c>
+      <c r="AT94" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU94" s="75"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15248,12 +15765,12 @@
       <c r="AM95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT95" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU95" s="47" cm="1">
-        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.5777000000000001</v>
+      <c r="AT95" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU95" s="45">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.7160000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15374,11 +15891,12 @@
       <c r="AM96" s="1">
         <v>199000000</v>
       </c>
-      <c r="AT96" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU96" s="48">
-        <v>8.4000000000000005E-2</v>
+      <c r="AT96" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU96" s="47" cm="1">
+        <f t="array" ref="AU96">_FV(A1,"Beta")</f>
+        <v>1.5814999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15499,15 +16017,14 @@
       <c r="AM97" s="1">
         <v>-6103000000</v>
       </c>
-      <c r="AT97" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU97" s="44">
-        <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.110244911</v>
+      <c r="AT97" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU97" s="48">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -15625,12 +16142,15 @@
       <c r="AM98" s="1">
         <v>-873000000</v>
       </c>
-      <c r="AT98" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU98" s="68"/>
+      <c r="AT98" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU98" s="44">
+        <f>(AU95)+((AU96)*(AU97-AU95))</f>
+        <v>0.10542246</v>
+      </c>
     </row>
-    <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -15748,13 +16268,10 @@
       <c r="AM99" s="1">
         <v>-266000000</v>
       </c>
-      <c r="AT99" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU99" s="42">
-        <f>AU86+AU87</f>
-        <v>5457000000</v>
-      </c>
+      <c r="AT99" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU99" s="75"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -15874,12 +16391,12 @@
       <c r="AM100" s="10">
         <v>-7043000000</v>
       </c>
-      <c r="AT100" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU100" s="44">
-        <f>AU99/AU103</f>
-        <v>4.4863325936954572E-2</v>
+      <c r="AT100" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU100" s="42">
+        <f>AU87+AU88</f>
+        <v>5457000000</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16000,12 +16517,12 @@
       <c r="AM101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT101" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU101" s="49" cm="1">
-        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>116179100000</v>
+      <c r="AT101" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU101" s="44">
+        <f>AU100/AU104</f>
+        <v>4.4432936555433691E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16126,12 +16643,12 @@
       <c r="AM102" s="10">
         <v>-3001000000</v>
       </c>
-      <c r="AT102" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU102" s="44">
-        <f>AU101/AU103</f>
-        <v>0.95513667406304548</v>
+      <c r="AT102" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU102" s="49" cm="1">
+        <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
+        <v>117357300000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16253,14 +16770,14 @@
         <v>5101000000</v>
       </c>
       <c r="AT103" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU103" s="50">
-        <f>AU99+AU101</f>
-        <v>121636100000</v>
+        <v>142</v>
+      </c>
+      <c r="AU103" s="44">
+        <f>AU102/AU104</f>
+        <v>0.95556706344456632</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16378,17 +16895,27 @@
       <c r="AM104" s="11">
         <v>2100000000</v>
       </c>
-      <c r="AT104" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU104" s="68"/>
+      <c r="AN104" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO104" s="74"/>
+      <c r="AP104" s="74"/>
+      <c r="AQ104" s="74"/>
+      <c r="AR104" s="74"/>
+      <c r="AT104" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU104" s="50">
+        <f>AU100+AU102</f>
+        <v>122814300000</v>
+      </c>
     </row>
-    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B105" s="1" t="e">
-        <f t="shared" ref="B105:AL105" si="20">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:AM105" si="20">(B22*(1-$AU$92))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="1" t="e">
@@ -16536,222 +17063,225 @@
         <v>4297347414.1334391</v>
       </c>
       <c r="AM105" s="1">
-        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <f t="shared" si="20"/>
         <v>4584287801.0264511</v>
       </c>
       <c r="AN105" s="27">
-        <f>AM105*(1+$AU$106)</f>
+        <f>AM105*(1+$AU$107)</f>
         <v>4806092118.3370409</v>
       </c>
       <c r="AO105" s="27">
-        <f t="shared" ref="AO105:AR105" si="21">AN105*(1+$AU$106)</f>
+        <f>AN105*(1+$AU$107)</f>
         <v>5038628125.5660954</v>
       </c>
       <c r="AP105" s="27">
-        <f t="shared" si="21"/>
+        <f>AO105*(1+$AU$107)</f>
         <v>5282415060.4358664</v>
       </c>
       <c r="AQ105" s="27">
-        <f t="shared" si="21"/>
+        <f>AP105*(1+$AU$107)</f>
         <v>5537997283.2554741</v>
       </c>
       <c r="AR105" s="27">
-        <f t="shared" si="21"/>
+        <f>AQ105*(1+$AU$107)</f>
         <v>5805945492.4419355</v>
       </c>
-      <c r="AS105" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT105" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU105" s="52">
-        <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.10690847782466323</v>
-      </c>
+      <c r="AS105" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT105" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU105" s="75"/>
     </row>
-    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AM106" si="22">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="21">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.4981818181818181</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.58515283842794763</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.74035087719298254</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-3.3783783783783785</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-4.9431818181818183</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.77089337175792516</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-2.9487388120423108</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.5127348643006262</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.5180789401048944E-2</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.9828711256117455</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.73942136295077465</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.31443211200100907</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.91369508925080833</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>6.1474592981427696</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.6780309949783212</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.27090250255099557</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.67662221119056021</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.10719859700668177</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.26842210282065626</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.94078430325005169</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>17.445024810655525</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.42685027146840082</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.23815967523680648</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.74777975133214913</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.65962441314554</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.39191789608723537</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3343881856540083</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.4749209218255761</v>
       </c>
       <c r="AI106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-3.0330882352941124E-2</v>
       </c>
       <c r="AJ106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-0.11342812006319114</v>
       </c>
       <c r="AK106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.2052744119743406</v>
       </c>
       <c r="AL106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.41159077468953287</v>
       </c>
       <c r="AM106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-3.3933808127356468E-2</v>
       </c>
-      <c r="AN106" s="40">
-        <v>5440000000</v>
-      </c>
-      <c r="AO106" s="40">
-        <v>5185000000</v>
-      </c>
-      <c r="AP106" s="40">
-        <v>5414000000</v>
-      </c>
-      <c r="AQ106" s="40">
-        <v>6406000000</v>
-      </c>
-      <c r="AR106" s="40">
-        <v>7916000000</v>
-      </c>
-      <c r="AS106" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT106" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU106" s="54">
-        <f>(SUM(AN4:AR4)/5)</f>
-        <v>4.8383593469180954E-2</v>
+      <c r="AN106" s="66">
+        <f>(AN107/AM107)-1</f>
+        <v>0.1795316565481353</v>
+      </c>
+      <c r="AO106" s="66">
+        <f>(AO107/AN107)-1</f>
+        <v>-4.6875E-2</v>
+      </c>
+      <c r="AP106" s="66">
+        <f>(AP107/AO107)-1</f>
+        <v>4.4165863066538025E-2</v>
+      </c>
+      <c r="AQ106" s="66">
+        <f>(AQ107/AP107)-1</f>
+        <v>0.18322866642039148</v>
+      </c>
+      <c r="AR106" s="66">
+        <f>(AR107/AQ107)-1</f>
+        <v>0.2357165157664689</v>
+      </c>
+      <c r="AS106" s="67">
+        <f>SUM(AN106:AR106)/5</f>
+        <v>0.11915354036030675</v>
+      </c>
+      <c r="AT106" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU106" s="52">
+        <f>(AU101*AU93)+(AU103*AU98)</f>
+        <v>0.10233231003984403</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -16867,151 +17397,179 @@
       <c r="AM107" s="1">
         <v>4612000000</v>
       </c>
-      <c r="AN107" s="28"/>
-      <c r="AO107" s="28"/>
-      <c r="AP107" s="28"/>
-      <c r="AQ107" s="28"/>
-      <c r="AR107" s="64">
-        <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>99060563881.66507</v>
-      </c>
-      <c r="AS107" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT107" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU107" s="56">
-        <v>2.5000000000000001E-2</v>
+      <c r="AN107" s="40">
+        <v>5440000000</v>
+      </c>
+      <c r="AO107" s="40">
+        <v>5185000000</v>
+      </c>
+      <c r="AP107" s="40">
+        <v>5414000000</v>
+      </c>
+      <c r="AQ107" s="40">
+        <v>6406000000</v>
+      </c>
+      <c r="AR107" s="40">
+        <v>7916000000</v>
+      </c>
+      <c r="AS107" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT107" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU107" s="54">
+        <f>(SUM(AN4:AR4)/5)</f>
+        <v>4.8383593469180954E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="64">
-        <f t="shared" ref="AN108:AQ108" si="23">AN107+AN106</f>
-        <v>5440000000</v>
-      </c>
-      <c r="AO108" s="64">
-        <f t="shared" si="23"/>
-        <v>5185000000</v>
-      </c>
-      <c r="AP108" s="64">
-        <f t="shared" si="23"/>
-        <v>5414000000</v>
-      </c>
-      <c r="AQ108" s="64">
-        <f t="shared" si="23"/>
-        <v>6406000000</v>
-      </c>
+      <c r="AN108" s="28"/>
+      <c r="AO108" s="28"/>
+      <c r="AP108" s="28"/>
+      <c r="AQ108" s="28"/>
       <c r="AR108" s="64">
-        <f>AR107+AR106</f>
-        <v>106976563881.66507</v>
+        <f>AR107*(1+AU108)/(AU109-AU108)</f>
+        <v>98069882845.416351</v>
       </c>
       <c r="AS108" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT108" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU108" s="54">
-        <f>AU105</f>
-        <v>0.10690847782466323</v>
+        <v>146</v>
+      </c>
+      <c r="AT108" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU108" s="56">
+        <v>0.02</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="65" t="s">
+      <c r="AN109" s="64">
+        <f t="shared" ref="AN109:AQ109" si="22">AN108+AN107</f>
+        <v>5440000000</v>
+      </c>
+      <c r="AO109" s="64">
+        <f t="shared" si="22"/>
+        <v>5185000000</v>
+      </c>
+      <c r="AP109" s="64">
+        <f t="shared" si="22"/>
+        <v>5414000000</v>
+      </c>
+      <c r="AQ109" s="64">
+        <f t="shared" si="22"/>
+        <v>6406000000</v>
+      </c>
+      <c r="AR109" s="64">
+        <f>AR108+AR107</f>
+        <v>105985882845.41635</v>
+      </c>
+      <c r="AS109" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT109" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU109" s="54">
+        <f>AU106</f>
+        <v>0.10233231003984403</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="AN110" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="AO109" s="65"/>
-    </row>
-    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO110" s="49">
-        <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>81782396142.766678</v>
-      </c>
+      <c r="AO110" s="71"/>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN111" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO111" s="49">
-        <f>AM40</f>
-        <v>2581000000</v>
+        <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
+        <v>82697970739.999329</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN112" s="58" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AO112" s="49">
-        <f>AU99</f>
-        <v>5457000000</v>
+        <f>AM40</f>
+        <v>2581000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN113" s="58" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AO113" s="49">
-        <f>AO110+AO111-AO112</f>
-        <v>78906396142.766678</v>
+        <f>AU100</f>
+        <v>5457000000</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN114" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO114" s="49">
+        <f>AO111+AO112-AO113</f>
+        <v>79821970739.999329</v>
+      </c>
+    </row>
+    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN115" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="AO114" s="58">
+      <c r="AO115" s="58">
         <f>AM34*(1+(5*AS16))</f>
         <v>696540700.0732367</v>
       </c>
     </row>
-    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="59" t="s">
+    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN116" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="AO115" s="60">
-        <f>AO113/AO114</f>
-        <v>113.2832527007685</v>
-      </c>
-    </row>
-    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO116" s="61" cm="1">
-        <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>140.06</v>
+      <c r="AO116" s="60">
+        <f>AO114/AO115</f>
+        <v>114.59771228243601</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO117" s="62">
-        <f>AO115/AO116-1</f>
-        <v>-0.19118054618900115</v>
+      <c r="AN117" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO117" s="61" cm="1">
+        <f t="array" ref="AO117">_FV(A1,"Price")</f>
+        <v>140.29</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN118" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO118" s="62">
+        <f>AO116/AO117-1</f>
+        <v>-0.18313698565517134</v>
+      </c>
+    </row>
+    <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.25">
+      <c r="AN119" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="AO118" s="63" t="str">
-        <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
+      <c r="AO119" s="63" t="str">
+        <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AN109:AO109"/>
-    <mergeCell ref="AT83:AU83"/>
+  <mergeCells count="7">
+    <mergeCell ref="AN110:AO110"/>
     <mergeCell ref="AT84:AU84"/>
-    <mergeCell ref="AT93:AU93"/>
-    <mergeCell ref="AT98:AU98"/>
-    <mergeCell ref="AT104:AU104"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AT85:AU85"/>
+    <mergeCell ref="AT105:AU105"/>
+    <mergeCell ref="AT99:AU99"/>
+    <mergeCell ref="AT94:AU94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/AMAT" display="ROIC.AI | AMAT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17092,7 +17650,7 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/6951/000000695122000043/0000006951-22-000043-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/6951/000000695122000043/0000006951-22-000043-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:AMAT/explorer/revenue_proj" xr:uid="{40CFEA40-73ED-3A4F-B8E4-2817D57A8D56}"/>
-    <hyperlink ref="AS106" r:id="rId79" xr:uid="{53B67333-27B8-354C-93D1-7D1CAA1F0CAD}"/>
+    <hyperlink ref="AS107" r:id="rId79" xr:uid="{53B67333-27B8-354C-93D1-7D1CAA1F0CAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId80"/>

--- a/Technology/Hardware/Applied Materials.xlsx
+++ b/Technology/Hardware/Applied Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE42ED54-47CD-DB45-9DF0-D2E7135DCA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E152D3AC-1F4D-3B4F-A33A-92044FB4546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,24 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$B$107:$AR$107</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$B$1:$AR$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$28:$AR$28</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$3:$AR$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$107:$AR$107</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$1:$AR$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$B$28:$AR$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$B$3:$AR$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$A$107</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -91,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -585,9 +567,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -961,11 +940,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -986,53 +960,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1051,17 +996,83 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2913,15 +2924,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
-      <sheetName val="ROIC"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Value"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2934,19 +2948,22 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.7160000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3073,12 +3090,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>155.26</v>
-    <v>71.12</v>
-    <v>1.5814999999999999</v>
-    <v>1.01</v>
-    <v>7.2519999999999998E-3</v>
-    <v>0.68</v>
-    <v>4.8470000000000006E-3</v>
+    <v>84.7</v>
+    <v>1.5826</v>
+    <v>0.46</v>
+    <v>3.516E-3</v>
+    <v>0.52</v>
+    <v>3.96E-3</v>
     <v>USD</v>
     <v>Applied Materials, Inc. provides manufacturing equipment, services and software to the semiconductor, display, and related industries. The Company operates through three segments: Semiconductor Systems, Applied Global Services, and Display and Adjacent Markets. Its Semiconductor Systems segment primarily consists of capital equipment used to fabricate semiconductor chips. Its Applied Global Services segment provides integrated solutions to optimize equipment and fab performance and productivity, including spares, upgrades, services, certain remanufactured old equipment and factory automation software for semiconductor, display and solar products. Its Display and Adjacent Markets segment includes products for manufacturing liquid crystal and organic light-emitting diode (OLED) displays, and other display technologies for televisions, monitors, laptops, personal computers, electronic tablets, smart phones, and other consumer-oriented devices and equipment upgrades.</v>
     <v>33000</v>
@@ -3086,25 +3103,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3050 Bowers Ave, SANTA CLARA, CA, 95054-3299 US</v>
-    <v>141.16</v>
+    <v>133.11000000000001</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45205.999673032034</v>
+    <v>45226.997139964842</v>
     <v>0</v>
-    <v>135.15</v>
-    <v>117357300000</v>
+    <v>130.56</v>
+    <v>109836900000</v>
     <v>APPLIED MATERIALS, INC.</v>
     <v>APPLIED MATERIALS, INC.</v>
-    <v>138.05000000000001</v>
-    <v>18.363600000000002</v>
-    <v>139.28</v>
-    <v>140.29</v>
-    <v>140.97</v>
+    <v>131.27000000000001</v>
+    <v>17.311499999999999</v>
+    <v>130.84</v>
+    <v>131.30000000000001</v>
+    <v>131.82</v>
     <v>836533900</v>
     <v>AMAT</v>
     <v>APPLIED MATERIALS, INC. (XNAS:AMAT)</v>
-    <v>5234440</v>
-    <v>5488871</v>
+    <v>4397310</v>
+    <v>5562968</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3692,10 +3709,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV110" sqref="AV110"/>
+      <selection pane="bottomRight" activeCell="AS26" sqref="AS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4542,20 +4559,20 @@
       <c r="AM6" s="10">
         <v>11993000000</v>
       </c>
-      <c r="AN6" s="30">
+      <c r="AN6" s="27">
         <f>AN3*AN7</f>
         <v>11757868800</v>
       </c>
-      <c r="AS6" s="69" t="s">
+      <c r="AS6" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="AT6" s="70" t="s">
+      <c r="AT6" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="AU6" s="70" t="s">
+      <c r="AU6" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="AV6" s="70" t="s">
+      <c r="AV6" s="48" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5915,17 +5932,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-4.1153774213629021E-2</v>
       </c>
-      <c r="AT16" s="35">
+      <c r="AT16" s="32">
         <f>AU102/AM3</f>
-        <v>4.5513787085514839</v>
-      </c>
-      <c r="AU16" s="35">
+        <v>4.2597207678883073</v>
+      </c>
+      <c r="AU16" s="32">
         <f>AU102/AM28</f>
-        <v>17.985793103448277</v>
-      </c>
-      <c r="AV16" s="36">
+        <v>16.833241379310344</v>
+      </c>
+      <c r="AV16" s="33">
         <f>AU102/AM107</f>
-        <v>25.446075455333911</v>
+        <v>23.815459670424978</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6296,36 +6313,36 @@
       <c r="AM19" s="10">
         <v>8271000000</v>
       </c>
-      <c r="AN19" s="30">
+      <c r="AN19" s="27">
         <v>7628000000</v>
       </c>
-      <c r="AO19" s="30">
+      <c r="AO19" s="27">
         <v>7170000000</v>
       </c>
-      <c r="AP19" s="30">
+      <c r="AP19" s="27">
         <v>8562000000</v>
       </c>
-      <c r="AQ19" s="30">
+      <c r="AQ19" s="27">
         <v>9960000000</v>
       </c>
-      <c r="AR19" s="30">
+      <c r="AR19" s="27">
         <v>10924000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-2876000000</v>
       </c>
-      <c r="AT19" s="35">
+      <c r="AT19" s="32">
         <f>AU102/AN3</f>
-        <v>4.6232784431137723</v>
-      </c>
-      <c r="AU19" s="35">
+        <v>4.3270130791049484</v>
+      </c>
+      <c r="AU19" s="32">
         <f>AU102/AN28</f>
-        <v>18.813289515870473</v>
-      </c>
-      <c r="AV19" s="36">
-        <f>AU102/AN105</f>
-        <v>24.418445820511423</v>
+        <v>17.607710804745111</v>
+      </c>
+      <c r="AV19" s="33">
+        <f>AU102/AN107</f>
+        <v>20.19060661764706</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6620,34 +6637,34 @@
       <c r="AM21" s="2">
         <v>0.32079999999999997</v>
       </c>
-      <c r="AN21" s="31">
+      <c r="AN21" s="28">
         <f>AN19/AN3</f>
         <v>0.30050425464859754</v>
       </c>
-      <c r="AO21" s="31">
+      <c r="AO21" s="28">
         <f t="shared" ref="AO21:AR21" si="7">AO19/AO3</f>
         <v>0.29170056956875506</v>
       </c>
-      <c r="AP21" s="31">
+      <c r="AP21" s="28">
         <f t="shared" si="7"/>
         <v>0.31134545454545454</v>
       </c>
-      <c r="AQ21" s="31">
+      <c r="AQ21" s="28">
         <f t="shared" si="7"/>
         <v>0.32743770136103623</v>
       </c>
-      <c r="AR21" s="31">
+      <c r="AR21" s="28">
         <f t="shared" si="7"/>
         <v>0.33745211911528483</v>
       </c>
-      <c r="AT21" s="65" t="s">
-        <v>168</v>
+      <c r="AT21" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="AU21" s="18" t="s">
         <v>161</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6772,13 +6789,13 @@
         <f>SUM(AN29:AR29)/4</f>
         <v>5.6685718287863229E-2</v>
       </c>
-      <c r="AU22" s="37">
+      <c r="AU22" s="34">
         <f>(-1*AM98)/AU102</f>
-        <v>7.438821445278649E-3</v>
-      </c>
-      <c r="AV22" s="38">
+        <v>7.9481485730205428E-3</v>
+      </c>
+      <c r="AV22" s="35">
         <f>AN107/AU102</f>
-        <v>4.635416799807085E-2</v>
+        <v>4.952798194413717E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7494,19 +7511,19 @@
       <c r="AM28" s="11">
         <v>6525000000</v>
       </c>
-      <c r="AN28" s="32">
+      <c r="AN28" s="29">
         <v>6238000000</v>
       </c>
-      <c r="AO28" s="32">
+      <c r="AO28" s="29">
         <v>5889000000</v>
       </c>
-      <c r="AP28" s="32">
+      <c r="AP28" s="29">
         <v>7089000000</v>
       </c>
-      <c r="AQ28" s="32">
+      <c r="AQ28" s="29">
         <v>7694000000</v>
       </c>
-      <c r="AR28" s="32">
+      <c r="AR28" s="29">
         <v>7983000000</v>
       </c>
     </row>
@@ -7802,23 +7819,23 @@
       <c r="AM30" s="2">
         <v>0.25309999999999999</v>
       </c>
-      <c r="AN30" s="33">
+      <c r="AN30" s="30">
         <f>AN28/AN3</f>
         <v>0.24574535140245823</v>
       </c>
-      <c r="AO30" s="33">
+      <c r="AO30" s="30">
         <f t="shared" ref="AO30:AR30" si="11">AO28/AO3</f>
         <v>0.23958502847843777</v>
       </c>
-      <c r="AP30" s="33">
+      <c r="AP30" s="30">
         <f t="shared" si="11"/>
         <v>0.25778181818181817</v>
       </c>
-      <c r="AQ30" s="33">
+      <c r="AQ30" s="30">
         <f t="shared" si="11"/>
         <v>0.25294233677427841</v>
       </c>
-      <c r="AR30" s="33">
+      <c r="AR30" s="30">
         <f t="shared" si="11"/>
         <v>0.24660200172989002</v>
       </c>
@@ -7941,19 +7958,19 @@
       <c r="AM31" s="12">
         <v>7.49</v>
       </c>
-      <c r="AN31" s="34">
+      <c r="AN31" s="31">
         <v>7.43</v>
       </c>
-      <c r="AO31" s="34">
+      <c r="AO31" s="31">
         <v>7.01</v>
       </c>
-      <c r="AP31" s="34">
+      <c r="AP31" s="31">
         <v>8.44</v>
       </c>
-      <c r="AQ31" s="34">
+      <c r="AQ31" s="31">
         <v>9.16</v>
       </c>
-      <c r="AR31" s="34">
+      <c r="AR31" s="31">
         <v>9.51</v>
       </c>
     </row>
@@ -14336,6 +14353,12 @@
       <c r="AM84" s="1">
         <v>390000000</v>
       </c>
+      <c r="AN84" s="51"/>
+      <c r="AO84" s="51"/>
+      <c r="AP84" s="51"/>
+      <c r="AQ84" s="51"/>
+      <c r="AR84" s="51"/>
+      <c r="AS84" s="51"/>
       <c r="AT84" s="72" t="s">
         <v>125</v>
       </c>
@@ -14459,6 +14482,12 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="AN85" s="51"/>
+      <c r="AO85" s="51"/>
+      <c r="AP85" s="51"/>
+      <c r="AQ85" s="51"/>
+      <c r="AR85" s="51"/>
+      <c r="AS85" s="51"/>
       <c r="AT85" s="75" t="s">
         <v>126</v>
       </c>
@@ -14582,10 +14611,16 @@
       <c r="AM86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT86" s="41" t="s">
+      <c r="AN86" s="51"/>
+      <c r="AO86" s="51"/>
+      <c r="AP86" s="51"/>
+      <c r="AQ86" s="51"/>
+      <c r="AR86" s="51"/>
+      <c r="AS86" s="51"/>
+      <c r="AT86" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="AU86" s="42">
+      <c r="AU86" s="52">
         <f>AM17</f>
         <v>228000000</v>
       </c>
@@ -14708,10 +14743,16 @@
       <c r="AM87" s="10">
         <v>5399000000</v>
       </c>
-      <c r="AT87" s="41" t="s">
+      <c r="AN87" s="51"/>
+      <c r="AO87" s="51"/>
+      <c r="AP87" s="51"/>
+      <c r="AQ87" s="51"/>
+      <c r="AR87" s="51"/>
+      <c r="AS87" s="51"/>
+      <c r="AT87" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="AU87" s="42">
+      <c r="AU87" s="52">
         <f>AM56</f>
         <v>0</v>
       </c>
@@ -14848,10 +14889,16 @@
         <f t="shared" si="18"/>
         <v>-787000000</v>
       </c>
-      <c r="AT88" s="41" t="s">
+      <c r="AN88" s="51"/>
+      <c r="AO88" s="51"/>
+      <c r="AP88" s="51"/>
+      <c r="AQ88" s="51"/>
+      <c r="AR88" s="51"/>
+      <c r="AS88" s="51"/>
+      <c r="AT88" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="AU88" s="42">
+      <c r="AU88" s="52">
         <f>AM61</f>
         <v>5457000000</v>
       </c>
@@ -15012,10 +15059,16 @@
         <f t="shared" si="19"/>
         <v>3.0521621097537328E-2</v>
       </c>
-      <c r="AT89" s="43" t="s">
+      <c r="AN89" s="51"/>
+      <c r="AO89" s="51"/>
+      <c r="AP89" s="51"/>
+      <c r="AQ89" s="51"/>
+      <c r="AR89" s="51"/>
+      <c r="AS89" s="51"/>
+      <c r="AT89" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="AU89" s="44">
+      <c r="AU89" s="53">
         <f>AU86/(AU87+AU88)</f>
         <v>4.1781198460692691E-2</v>
       </c>
@@ -15138,10 +15191,16 @@
       <c r="AM90" s="1">
         <v>-441000000</v>
       </c>
-      <c r="AT90" s="41" t="s">
+      <c r="AN90" s="51"/>
+      <c r="AO90" s="51"/>
+      <c r="AP90" s="51"/>
+      <c r="AQ90" s="51"/>
+      <c r="AR90" s="51"/>
+      <c r="AS90" s="51"/>
+      <c r="AT90" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="AU90" s="42">
+      <c r="AU90" s="52">
         <f>AM27</f>
         <v>1074000000</v>
       </c>
@@ -15264,10 +15323,16 @@
       <c r="AM91" s="1">
         <v>-1492000000</v>
       </c>
-      <c r="AT91" s="41" t="s">
+      <c r="AN91" s="51"/>
+      <c r="AO91" s="51"/>
+      <c r="AP91" s="51"/>
+      <c r="AQ91" s="51"/>
+      <c r="AR91" s="51"/>
+      <c r="AS91" s="51"/>
+      <c r="AT91" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AU91" s="42">
+      <c r="AU91" s="52">
         <f>AM25</f>
         <v>7599000000</v>
       </c>
@@ -15390,10 +15455,16 @@
       <c r="AM92" s="1">
         <v>1363000000</v>
       </c>
-      <c r="AT92" s="43" t="s">
+      <c r="AN92" s="51"/>
+      <c r="AO92" s="51"/>
+      <c r="AP92" s="51"/>
+      <c r="AQ92" s="51"/>
+      <c r="AR92" s="51"/>
+      <c r="AS92" s="51"/>
+      <c r="AT92" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="AU92" s="44">
+      <c r="AU92" s="53">
         <f>AU90/AU91</f>
         <v>0.14133438610343466</v>
       </c>
@@ -15516,10 +15587,16 @@
       <c r="AM93" s="1">
         <v>-787000000</v>
       </c>
-      <c r="AT93" s="43" t="s">
+      <c r="AN93" s="51"/>
+      <c r="AO93" s="51"/>
+      <c r="AP93" s="51"/>
+      <c r="AQ93" s="51"/>
+      <c r="AR93" s="51"/>
+      <c r="AS93" s="51"/>
+      <c r="AT93" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AU93" s="44">
+      <c r="AU93" s="53">
         <f>AU89*(1-AU92)</f>
         <v>3.587607842558492E-2</v>
       </c>
@@ -15642,6 +15719,12 @@
       <c r="AM94" s="10">
         <v>-1357000000</v>
       </c>
+      <c r="AN94" s="51"/>
+      <c r="AO94" s="51"/>
+      <c r="AP94" s="51"/>
+      <c r="AQ94" s="51"/>
+      <c r="AR94" s="51"/>
+      <c r="AS94" s="51"/>
       <c r="AT94" s="75" t="s">
         <v>133</v>
       </c>
@@ -15765,12 +15848,18 @@
       <c r="AM95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT95" s="41" t="s">
+      <c r="AN95" s="51"/>
+      <c r="AO95" s="51"/>
+      <c r="AP95" s="51"/>
+      <c r="AQ95" s="51"/>
+      <c r="AR95" s="51"/>
+      <c r="AS95" s="51"/>
+      <c r="AT95" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="AU95" s="45">
-        <f>[1]Treasuries!$C$8</f>
-        <v>4.7160000000000001E-2</v>
+      <c r="AU95" s="50">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15891,12 +15980,18 @@
       <c r="AM96" s="1">
         <v>199000000</v>
       </c>
-      <c r="AT96" s="46" t="s">
+      <c r="AN96" s="51"/>
+      <c r="AO96" s="51"/>
+      <c r="AP96" s="51"/>
+      <c r="AQ96" s="51"/>
+      <c r="AR96" s="51"/>
+      <c r="AS96" s="51"/>
+      <c r="AT96" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="AU96" s="47" cm="1">
+      <c r="AU96" s="54" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>1.5814999999999999</v>
+        <v>1.5826</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16017,10 +16112,16 @@
       <c r="AM97" s="1">
         <v>-6103000000</v>
       </c>
-      <c r="AT97" s="41" t="s">
+      <c r="AN97" s="51"/>
+      <c r="AO97" s="51"/>
+      <c r="AP97" s="51"/>
+      <c r="AQ97" s="51"/>
+      <c r="AR97" s="51"/>
+      <c r="AS97" s="51"/>
+      <c r="AT97" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="AU97" s="48">
+      <c r="AU97" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -16142,12 +16243,18 @@
       <c r="AM98" s="1">
         <v>-873000000</v>
       </c>
-      <c r="AT98" s="43" t="s">
+      <c r="AN98" s="51"/>
+      <c r="AO98" s="51"/>
+      <c r="AP98" s="51"/>
+      <c r="AQ98" s="51"/>
+      <c r="AR98" s="51"/>
+      <c r="AS98" s="51"/>
+      <c r="AT98" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="AU98" s="44">
+      <c r="AU98" s="53">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>0.10542246</v>
+        <v>0.10471143000000001</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16268,6 +16375,12 @@
       <c r="AM99" s="1">
         <v>-266000000</v>
       </c>
+      <c r="AN99" s="51"/>
+      <c r="AO99" s="51"/>
+      <c r="AP99" s="51"/>
+      <c r="AQ99" s="51"/>
+      <c r="AR99" s="51"/>
+      <c r="AS99" s="51"/>
       <c r="AT99" s="75" t="s">
         <v>138</v>
       </c>
@@ -16391,10 +16504,16 @@
       <c r="AM100" s="10">
         <v>-7043000000</v>
       </c>
-      <c r="AT100" s="41" t="s">
+      <c r="AN100" s="51"/>
+      <c r="AO100" s="51"/>
+      <c r="AP100" s="51"/>
+      <c r="AQ100" s="51"/>
+      <c r="AR100" s="51"/>
+      <c r="AS100" s="51"/>
+      <c r="AT100" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="AU100" s="42">
+      <c r="AU100" s="52">
         <f>AU87+AU88</f>
         <v>5457000000</v>
       </c>
@@ -16517,12 +16636,18 @@
       <c r="AM101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT101" s="43" t="s">
+      <c r="AN101" s="51"/>
+      <c r="AO101" s="51"/>
+      <c r="AP101" s="51"/>
+      <c r="AQ101" s="51"/>
+      <c r="AR101" s="51"/>
+      <c r="AS101" s="51"/>
+      <c r="AT101" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="AU101" s="44">
+      <c r="AU101" s="53">
         <f>AU100/AU104</f>
-        <v>4.4432936555433691E-2</v>
+        <v>4.7331211798716154E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16643,12 +16768,18 @@
       <c r="AM102" s="10">
         <v>-3001000000</v>
       </c>
-      <c r="AT102" s="46" t="s">
+      <c r="AN102" s="51"/>
+      <c r="AO102" s="51"/>
+      <c r="AP102" s="51"/>
+      <c r="AQ102" s="51"/>
+      <c r="AR102" s="51"/>
+      <c r="AS102" s="51"/>
+      <c r="AT102" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AU102" s="49" cm="1">
+      <c r="AU102" s="56" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>117357300000</v>
+        <v>109836900000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16769,12 +16900,18 @@
       <c r="AM103" s="1">
         <v>5101000000</v>
       </c>
-      <c r="AT103" s="43" t="s">
+      <c r="AN103" s="51"/>
+      <c r="AO103" s="51"/>
+      <c r="AP103" s="51"/>
+      <c r="AQ103" s="51"/>
+      <c r="AR103" s="51"/>
+      <c r="AS103" s="51"/>
+      <c r="AT103" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AU103" s="44">
+      <c r="AU103" s="53">
         <f>AU102/AU104</f>
-        <v>0.95556706344456632</v>
+        <v>0.95266878820128387</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16896,18 +17033,19 @@
         <v>2100000000</v>
       </c>
       <c r="AN104" s="74" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="AO104" s="74"/>
       <c r="AP104" s="74"/>
       <c r="AQ104" s="74"/>
       <c r="AR104" s="74"/>
-      <c r="AT104" s="43" t="s">
+      <c r="AS104" s="51"/>
+      <c r="AT104" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="AU104" s="50">
+      <c r="AU104" s="57">
         <f>AU100+AU102</f>
-        <v>122814300000</v>
+        <v>115293900000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17066,28 +17204,28 @@
         <f t="shared" si="20"/>
         <v>4584287801.0264511</v>
       </c>
-      <c r="AN105" s="27">
-        <f>AM105*(1+$AU$107)</f>
-        <v>4806092118.3370409</v>
-      </c>
-      <c r="AO105" s="27">
-        <f>AN105*(1+$AU$107)</f>
-        <v>5038628125.5660954</v>
-      </c>
-      <c r="AP105" s="27">
-        <f>AO105*(1+$AU$107)</f>
-        <v>5282415060.4358664</v>
-      </c>
-      <c r="AQ105" s="27">
-        <f>AP105*(1+$AU$107)</f>
-        <v>5537997283.2554741</v>
-      </c>
-      <c r="AR105" s="27">
-        <f>AQ105*(1+$AU$107)</f>
-        <v>5805945492.4419355</v>
-      </c>
-      <c r="AS105" s="68" t="s">
-        <v>167</v>
+      <c r="AN105" s="49">
+        <f>AN107/AN3</f>
+        <v>0.21430822565395524</v>
+      </c>
+      <c r="AO105" s="49">
+        <f>AO107/AO3</f>
+        <v>0.21094385679414157</v>
+      </c>
+      <c r="AP105" s="49">
+        <f>AP107/AP3</f>
+        <v>0.19687272727272728</v>
+      </c>
+      <c r="AQ105" s="49">
+        <f>AQ107/AQ3</f>
+        <v>0.2105989874416464</v>
+      </c>
+      <c r="AR105" s="49">
+        <f>AR107/AR3</f>
+        <v>0.2445323118744594</v>
+      </c>
+      <c r="AS105" s="46" t="s">
+        <v>166</v>
       </c>
       <c r="AT105" s="75" t="s">
         <v>144</v>
@@ -17247,40 +17385,40 @@
         <f t="shared" si="21"/>
         <v>-3.3933808127356468E-2</v>
       </c>
-      <c r="AN106" s="66">
+      <c r="AN106" s="44">
         <f>(AN107/AM107)-1</f>
         <v>0.1795316565481353</v>
       </c>
-      <c r="AO106" s="66">
+      <c r="AO106" s="44">
         <f>(AO107/AN107)-1</f>
         <v>-4.6875E-2</v>
       </c>
-      <c r="AP106" s="66">
+      <c r="AP106" s="44">
         <f>(AP107/AO107)-1</f>
         <v>4.4165863066538025E-2</v>
       </c>
-      <c r="AQ106" s="66">
+      <c r="AQ106" s="44">
         <f>(AQ107/AP107)-1</f>
         <v>0.18322866642039148</v>
       </c>
-      <c r="AR106" s="66">
+      <c r="AR106" s="44">
         <f>(AR107/AQ107)-1</f>
         <v>0.2357165157664689</v>
       </c>
-      <c r="AS106" s="67">
+      <c r="AS106" s="45">
         <f>SUM(AN106:AR106)/5</f>
         <v>0.11915354036030675</v>
       </c>
-      <c r="AT106" s="51" t="s">
+      <c r="AT106" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="AU106" s="52">
+      <c r="AU106" s="58">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>0.10233231003984403</v>
+        <v>0.10145336939539228</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="36" t="s">
         <v>163</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -17397,169 +17535,229 @@
       <c r="AM107" s="1">
         <v>4612000000</v>
       </c>
-      <c r="AN107" s="40">
+      <c r="AN107" s="59">
         <v>5440000000</v>
       </c>
-      <c r="AO107" s="40">
+      <c r="AO107" s="59">
         <v>5185000000</v>
       </c>
-      <c r="AP107" s="40">
+      <c r="AP107" s="59">
         <v>5414000000</v>
       </c>
-      <c r="AQ107" s="40">
+      <c r="AQ107" s="59">
         <v>6406000000</v>
       </c>
-      <c r="AR107" s="40">
+      <c r="AR107" s="59">
         <v>7916000000</v>
       </c>
-      <c r="AS107" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT107" s="53" t="s">
+      <c r="AS107" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT107" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AU107" s="54">
+      <c r="AU107" s="41">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>4.8383593469180954E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="28"/>
-      <c r="AO108" s="28"/>
-      <c r="AP108" s="28"/>
-      <c r="AQ108" s="28"/>
-      <c r="AR108" s="64">
+    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN108" s="46"/>
+      <c r="AO108" s="46"/>
+      <c r="AP108" s="46"/>
+      <c r="AQ108" s="46"/>
+      <c r="AR108" s="61">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>98069882845.416351</v>
-      </c>
-      <c r="AS108" s="29" t="s">
+        <v>99128127662.902496</v>
+      </c>
+      <c r="AS108" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="AT108" s="55" t="s">
+      <c r="AT108" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="AU108" s="56">
+      <c r="AU108" s="42">
         <v>0.02</v>
       </c>
     </row>
-    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64">
+    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN109" s="61">
         <f t="shared" ref="AN109:AQ109" si="22">AN108+AN107</f>
         <v>5440000000</v>
       </c>
-      <c r="AO109" s="64">
+      <c r="AO109" s="61">
         <f t="shared" si="22"/>
         <v>5185000000</v>
       </c>
-      <c r="AP109" s="64">
+      <c r="AP109" s="61">
         <f t="shared" si="22"/>
         <v>5414000000</v>
       </c>
-      <c r="AQ109" s="64">
+      <c r="AQ109" s="61">
         <f t="shared" si="22"/>
         <v>6406000000</v>
       </c>
-      <c r="AR109" s="64">
+      <c r="AR109" s="61">
         <f>AR108+AR107</f>
-        <v>105985882845.41635</v>
-      </c>
-      <c r="AS109" s="29" t="s">
+        <v>107044127662.9025</v>
+      </c>
+      <c r="AS109" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="AT109" s="57" t="s">
+      <c r="AT109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AU109" s="54">
+      <c r="AU109" s="41">
         <f>AU106</f>
-        <v>0.10233231003984403</v>
+        <v>0.10145336939539228</v>
       </c>
     </row>
-    <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
       <c r="AN110" s="71" t="s">
         <v>149</v>
       </c>
       <c r="AO110" s="71"/>
+      <c r="AP110" s="51"/>
+      <c r="AQ110" s="51"/>
+      <c r="AR110" s="51"/>
+      <c r="AS110" s="51"/>
+      <c r="AT110" s="51"/>
+      <c r="AU110" s="51"/>
     </row>
-    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="58" t="s">
+    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN111" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="AO111" s="49">
+      <c r="AO111" s="56">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>82697970739.999329</v>
-      </c>
+        <v>83645253683.976135</v>
+      </c>
+      <c r="AP111" s="51"/>
+      <c r="AQ111" s="51"/>
+      <c r="AR111" s="51"/>
+      <c r="AS111" s="51"/>
+      <c r="AT111" s="51"/>
+      <c r="AU111" s="51"/>
     </row>
-    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="58" t="s">
+    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN112" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="AO112" s="49">
+      <c r="AO112" s="56">
         <f>AM40</f>
         <v>2581000000</v>
       </c>
+      <c r="AP112" s="51"/>
+      <c r="AQ112" s="51"/>
+      <c r="AR112" s="51"/>
+      <c r="AS112" s="51"/>
+      <c r="AT112" s="51"/>
+      <c r="AU112" s="51"/>
     </row>
-    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="58" t="s">
+    <row r="113" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN113" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="AO113" s="49">
+      <c r="AO113" s="56">
         <f>AU100</f>
         <v>5457000000</v>
       </c>
+      <c r="AP113" s="51"/>
+      <c r="AQ113" s="51"/>
+      <c r="AR113" s="51"/>
+      <c r="AS113" s="51"/>
+      <c r="AT113" s="51"/>
+      <c r="AU113" s="51"/>
     </row>
-    <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="58" t="s">
+    <row r="114" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN114" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="AO114" s="49">
+      <c r="AO114" s="56">
         <f>AO111+AO112-AO113</f>
-        <v>79821970739.999329</v>
-      </c>
+        <v>80769253683.976135</v>
+      </c>
+      <c r="AP114" s="51"/>
+      <c r="AQ114" s="51"/>
+      <c r="AR114" s="51"/>
+      <c r="AS114" s="51"/>
+      <c r="AT114" s="51"/>
+      <c r="AU114" s="51"/>
     </row>
-    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="58" t="s">
+    <row r="115" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN115" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="AO115" s="58">
+      <c r="AO115" s="65">
         <f>AM34*(1+(5*AS16))</f>
         <v>696540700.0732367</v>
       </c>
+      <c r="AP115" s="51"/>
+      <c r="AQ115" s="51"/>
+      <c r="AR115" s="51"/>
+      <c r="AS115" s="51"/>
+      <c r="AT115" s="51"/>
+      <c r="AU115" s="51"/>
     </row>
-    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="59" t="s">
+    <row r="116" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN116" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="AO116" s="60">
+      <c r="AO116" s="67">
         <f>AO114/AO115</f>
-        <v>114.59771228243601</v>
-      </c>
+        <v>115.95769446851243</v>
+      </c>
+      <c r="AP116" s="51"/>
+      <c r="AQ116" s="51"/>
+      <c r="AR116" s="51"/>
+      <c r="AS116" s="51"/>
+      <c r="AT116" s="51"/>
+      <c r="AU116" s="51"/>
     </row>
-    <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="58" t="s">
+    <row r="117" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN117" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="AO117" s="61" cm="1">
+      <c r="AO117" s="68" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>140.29</v>
-      </c>
+        <v>131.30000000000001</v>
+      </c>
+      <c r="AP117" s="51"/>
+      <c r="AQ117" s="51"/>
+      <c r="AR117" s="51"/>
+      <c r="AS117" s="51"/>
+      <c r="AT117" s="51"/>
+      <c r="AU117" s="51"/>
     </row>
-    <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="59" t="s">
+    <row r="118" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN118" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="AO118" s="62">
+      <c r="AO118" s="69">
         <f>AO116/AO117-1</f>
-        <v>-0.18313698565517134</v>
-      </c>
+        <v>-0.11684924243326411</v>
+      </c>
+      <c r="AP118" s="51"/>
+      <c r="AQ118" s="51"/>
+      <c r="AR118" s="51"/>
+      <c r="AS118" s="51"/>
+      <c r="AT118" s="51"/>
+      <c r="AU118" s="51"/>
     </row>
-    <row r="119" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN119" s="59" t="s">
+    <row r="119" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN119" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="AO119" s="63" t="str">
+      <c r="AO119" s="70" t="str">
         <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AP119" s="51"/>
+      <c r="AQ119" s="51"/>
+      <c r="AR119" s="51"/>
+      <c r="AS119" s="51"/>
+      <c r="AT119" s="51"/>
+      <c r="AU119" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Technology/Hardware/Applied Materials.xlsx
+++ b/Technology/Hardware/Applied Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7498D7CC-993A-494A-976A-DF8AD3B5F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA12A71-69E5-CE46-89DA-0AE98523FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1753,6 +1753,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1772,7 +1774,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1785,6 +1787,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1912,11 +1916,11 @@
     <v>Powered by Refinitiv</v>
     <v>157.76</v>
     <v>93.674999999999997</v>
-    <v>1.5759000000000001</v>
-    <v>1.81</v>
-    <v>1.2083999999999999E-2</v>
-    <v>-0.56999999999999995</v>
-    <v>-3.7599999999999999E-3</v>
+    <v>1.5769</v>
+    <v>-0.67</v>
+    <v>-4.5149999999999999E-3</v>
+    <v>0.1</v>
+    <v>6.7699999999999998E-4</v>
     <v>USD</v>
     <v>Applied Materials, Inc. provides manufacturing equipment, services and software to the semiconductor, display, and related industries. The Company operates through three segments: Semiconductor Systems, Applied Global Services, and Display and Adjacent Markets. Its Semiconductor Systems segment primarily consists of capital equipment used to fabricate semiconductor chips. Its Applied Global Services segment provides integrated solutions to optimize equipment and fab performance and productivity, including spares, upgrades, services, certain remanufactured old equipment and factory automation software for semiconductor, display and solar products. Its Display and Adjacent Markets segment includes products for manufacturing liquid crystal and organic light-emitting diode (OLED) displays, and other display technologies for televisions, monitors, laptops, personal computers, electronic tablets, smart phones, and other consumer-oriented devices and equipment upgrades.</v>
     <v>33000</v>
@@ -1924,25 +1928,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3050 Bowers Ave, SANTA CLARA, CA, 95054-3299 US</v>
-    <v>151.97999999999999</v>
+    <v>148.81</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45262.025812314059</v>
+    <v>45269.041076503905</v>
     <v>0</v>
-    <v>148.63</v>
-    <v>125296000000</v>
+    <v>145.99</v>
+    <v>123572787708</v>
     <v>APPLIED MATERIALS, INC.</v>
     <v>APPLIED MATERIALS, INC.</v>
-    <v>149.56</v>
-    <v>18.463000000000001</v>
-    <v>149.78</v>
-    <v>151.59</v>
-    <v>151.02000000000001</v>
+    <v>147.41999999999999</v>
+    <v>18.291599999999999</v>
+    <v>148.38999999999999</v>
+    <v>147.72</v>
+    <v>147.82</v>
     <v>836533900</v>
     <v>AMAT</v>
     <v>APPLIED MATERIALS, INC. (XNAS:AMAT)</v>
-    <v>4929366</v>
-    <v>5917155</v>
+    <v>4990196</v>
+    <v>6018732</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2107,9 +2111,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15228,7 +15232,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15281,7 +15285,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>125296000000</v>
+        <v>123572787708</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>203</v>
@@ -15309,14 +15313,14 @@
       </c>
       <c r="I3" s="37">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>123532754738.19406</v>
+        <v>122768825136.48088</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>207</v>
       </c>
       <c r="K3" s="39">
         <f>Financials!Q172*-1/Model!A3</f>
-        <v>7.422423700676797E-3</v>
+        <v>7.5259287845603293E-3</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>208</v>
@@ -15361,14 +15365,14 @@
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>104729386982.85454</v>
+        <v>104057825320.16165</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>214</v>
       </c>
       <c r="K4" s="48" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.2083999999999999E-2</v>
+        <v>-4.5149999999999999E-3</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>215</v>
@@ -15413,14 +15417,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>105605386982.85454</v>
+        <v>104933825320.16165</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>221</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>151.59</v>
+        <v>147.72</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>222</v>
@@ -15440,7 +15444,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>4.7641064638783268</v>
+        <v>4.6985850839543728</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>224</v>
@@ -15468,14 +15472,14 @@
       </c>
       <c r="I6" s="48">
         <f>N25</f>
-        <v>9.4615139873029275E-2</v>
+        <v>9.5048320413914061E-2</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>227</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>147.07500477119962</v>
+        <v>146.13973113065376</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>228</v>
@@ -15495,14 +15499,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>19.568327346556302</v>
+        <v>19.299201578635014</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>230</v>
       </c>
       <c r="C7" s="60">
         <f>F15/A3</f>
-        <v>4.6928872430085561E-2</v>
+        <v>4.7583291670123373E-2</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>231</v>
@@ -15529,7 +15533,7 @@
       </c>
       <c r="K7" s="66">
         <f>K6/K5-1</f>
-        <v>-2.9784255088069034E-2</v>
+        <v>-1.0697731311577585E-2</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>234</v>
@@ -15856,7 +15860,7 @@
       </c>
       <c r="O14" s="86">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -16008,7 +16012,7 @@
       </c>
       <c r="O17" s="96">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -16091,7 +16095,7 @@
       </c>
       <c r="O20" s="102">
         <f>A3</f>
-        <v>125296000000</v>
+        <v>123572787708</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
@@ -16121,7 +16125,7 @@
       </c>
       <c r="O21" s="102">
         <f>O19+O20</f>
-        <v>130955000000</v>
+        <v>129231787708</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -16149,7 +16153,7 @@
       </c>
       <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>4.3213317551830784E-2</v>
+        <v>4.3789535843816882E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -16174,7 +16178,7 @@
       </c>
       <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.95678668244816922</v>
+        <v>0.95621046415618316</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -16218,7 +16222,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.4615139873029275E-2</v>
+        <v>9.5048320413914061E-2</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="41"/>
